--- a/src/main/java/com/billhub/qa/testdata/30005574_template_for_non_po_based_with_multiple_invoice.xlsx
+++ b/src/main/java/com/billhub/qa/testdata/30005574_template_for_non_po_based_with_multiple_invoice.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="116">
   <si>
     <t>Status</t>
   </si>
@@ -360,265 +360,7 @@
     <t>Web Access Charges</t>
   </si>
   <si>
-    <t>Testinv66778</t>
-  </si>
-  <si>
-    <t>Testinv66774</t>
-  </si>
-  <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>TESTINV63492</t>
-  </si>
-  <si>
-    <t>TESTINV16218</t>
-  </si>
-  <si>
-    <t>TESTINV81022</t>
-  </si>
-  <si>
-    <t>TESTINV65226</t>
-  </si>
-  <si>
-    <t>TESTINV76461</t>
-  </si>
-  <si>
-    <t>TESTINV90418</t>
-  </si>
-  <si>
-    <t>TESTINV35079</t>
-  </si>
-  <si>
-    <t>TESTINV35268</t>
-  </si>
-  <si>
-    <t>TESTINV72635</t>
-  </si>
-  <si>
-    <t>TESTINV67772</t>
-  </si>
-  <si>
-    <t>TESTINV90164</t>
-  </si>
-  <si>
-    <t>TESTINV51055</t>
-  </si>
-  <si>
-    <t>TESTINV48953</t>
-  </si>
-  <si>
-    <t>TESTINV04640</t>
-  </si>
-  <si>
-    <t>TESTINV03820</t>
-  </si>
-  <si>
-    <t>TESTINV99305</t>
-  </si>
-  <si>
-    <t>TESTINV84690</t>
-  </si>
-  <si>
-    <t>TESTINV68011</t>
-  </si>
-  <si>
-    <t>TESTINV81981</t>
-  </si>
-  <si>
-    <t>TESTINV05868</t>
-  </si>
-  <si>
-    <t>TESTINV15720</t>
-  </si>
-  <si>
-    <t>TESTINV54135</t>
-  </si>
-  <si>
-    <t>TESTINV51076</t>
-  </si>
-  <si>
-    <t>TESTINV62453</t>
-  </si>
-  <si>
-    <t>TESTINV34592</t>
-  </si>
-  <si>
-    <t>TESTINV84232</t>
-  </si>
-  <si>
-    <t>TESTINV76093</t>
-  </si>
-  <si>
-    <t>TESTINV09017</t>
-  </si>
-  <si>
-    <t>TESTINV06356</t>
-  </si>
-  <si>
-    <t>TESTINV69494</t>
-  </si>
-  <si>
-    <t>TESTINV67419</t>
-  </si>
-  <si>
-    <t>TESTINV89736</t>
-  </si>
-  <si>
-    <t>TESTINV43565</t>
-  </si>
-  <si>
-    <t>TESTINV83096</t>
-  </si>
-  <si>
-    <t>TESTINV32934</t>
-  </si>
-  <si>
-    <t>TESTINV42776</t>
-  </si>
-  <si>
-    <t>TESTINV23000</t>
-  </si>
-  <si>
-    <t>TESTINV34634</t>
-  </si>
-  <si>
-    <t>TESTINV90999</t>
-  </si>
-  <si>
-    <t>TESTINV88234</t>
-  </si>
-  <si>
-    <t>TESTINV30273</t>
-  </si>
-  <si>
-    <t>TESTINV00789</t>
-  </si>
-  <si>
-    <t>TESTINV61282</t>
-  </si>
-  <si>
-    <t>TESTINV32769</t>
-  </si>
-  <si>
-    <t>TESTINV78447</t>
-  </si>
-  <si>
-    <t>TESTINV70276</t>
-  </si>
-  <si>
-    <t>TESTINV95646</t>
-  </si>
-  <si>
-    <t>TESTINV27103</t>
-  </si>
-  <si>
-    <t>TESTINV00930</t>
-  </si>
-  <si>
-    <t>TESTINV16801</t>
-  </si>
-  <si>
-    <t>TESTINV48325</t>
-  </si>
-  <si>
-    <t>TESTINV83516</t>
-  </si>
-  <si>
-    <t>TESTINV01629</t>
-  </si>
-  <si>
-    <t>TESTINV44544</t>
-  </si>
-  <si>
-    <t>TESTINV45681</t>
-  </si>
-  <si>
-    <t>TESTINV47823</t>
-  </si>
-  <si>
-    <t>TESTINV31064</t>
-  </si>
-  <si>
-    <t>TESTINV97862</t>
-  </si>
-  <si>
-    <t>TESTINV85530</t>
-  </si>
-  <si>
-    <t>TESTINV07746</t>
-  </si>
-  <si>
-    <t>TESTINV55696</t>
-  </si>
-  <si>
-    <t>TESTINV58073</t>
-  </si>
-  <si>
-    <t>TESTINV95713</t>
-  </si>
-  <si>
-    <t>TESTINV72354</t>
-  </si>
-  <si>
-    <t>TESTINV29649</t>
-  </si>
-  <si>
-    <t>TESTINV33527</t>
-  </si>
-  <si>
-    <t>TESTINV50241</t>
-  </si>
-  <si>
-    <t>TESTINV09323</t>
-  </si>
-  <si>
-    <t>TESTINV70222</t>
-  </si>
-  <si>
-    <t>TESTINV83714</t>
-  </si>
-  <si>
-    <t>TESTINV85728</t>
-  </si>
-  <si>
-    <t>TESTINV97603</t>
-  </si>
-  <si>
-    <t>TESTINV77009</t>
-  </si>
-  <si>
-    <t>TESTINV87538</t>
-  </si>
-  <si>
-    <t>TESTINV06411</t>
-  </si>
-  <si>
-    <t>TESTINV97904</t>
-  </si>
-  <si>
-    <t>TESTINV98534</t>
-  </si>
-  <si>
-    <t>TESTINV05317</t>
-  </si>
-  <si>
-    <t>TESTINV94820</t>
-  </si>
-  <si>
-    <t>TESTINV58680</t>
-  </si>
-  <si>
-    <t>TESTINV96247</t>
-  </si>
-  <si>
-    <t>TESTINV79584</t>
-  </si>
-  <si>
-    <t>TESTINV79468</t>
-  </si>
-  <si>
-    <t>TESTINV46372</t>
   </si>
   <si>
     <t>TESTINV87097</t>
@@ -990,7 +732,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1000,36 +742,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.7265625"/>
-    <col min="2" max="2" customWidth="true" width="15.54296875"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.453125"/>
-    <col min="4" max="4" customWidth="true" width="43.81640625"/>
-    <col min="5" max="5" customWidth="true" style="2" width="13.453125"/>
-    <col min="6" max="6" customWidth="true" style="2" width="18.1796875"/>
-    <col min="7" max="10" customWidth="true" style="2" width="9.1796875"/>
-    <col min="11" max="11" customWidth="true" style="3" width="10.26953125"/>
-    <col min="12" max="12" customWidth="true" width="16.0"/>
-    <col min="13" max="13" customWidth="true" width="10.54296875"/>
-    <col min="14" max="14" customWidth="true" style="2" width="17.0"/>
+    <col min="1" max="1" width="22.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="43.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" style="2" customWidth="1"/>
+    <col min="7" max="10" width="9.1796875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.26953125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="10.54296875" customWidth="1"/>
+    <col min="14" max="14" width="17" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1053,21 +795,21 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="0">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="0">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="0">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="str" s="0">
+      <c r="A2" t="str">
         <f ca="1">IF(COUNTBLANK(B2:O2)&gt;0,IF(COUNTBLANK(B2:O2)=14,"",CONCATENATE("Inprogress",IF(ISBLANK(B2),"-Invoice Number is blank",""))),
 CONCATENATE(
 IF(COUNTBLANK(B2:N2)&lt;=0,ROW(B2)-1,""),
@@ -1082,13 +824,13 @@
 IF(ISBLANK(O2),"-Company Code is blank","")))</f>
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>200</v>
+      <c r="B2" t="s">
+        <v>114</v>
       </c>
       <c r="C2" s="1">
         <v>45359</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="2">
@@ -1112,21 +854,21 @@
       <c r="K2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="M2" t="s" s="0">
-        <v>115</v>
+      <c r="L2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M2" t="s">
+        <v>113</v>
       </c>
       <c r="N2" s="2">
         <v>1</v>
       </c>
-      <c r="O2" t="s" s="0">
+      <c r="O2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="str" s="0">
+      <c r="A3" t="str">
         <f ca="1">IF(COUNTBLANK(B3:O3)&gt;0,IF(COUNTBLANK(B3:O3)=14,"",CONCATENATE("Inprogress",IF(ISBLANK(B3),"-Invoice Number is blank",""))),
 CONCATENATE(
 IF(COUNTBLANK(B3:N3)&lt;=0,ROW(B3)-1,""),
@@ -1141,13 +883,13 @@
 IF(ISBLANK(O3),"-Company Code is blank","")))</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>201</v>
+      <c r="B3" t="s">
+        <v>115</v>
       </c>
       <c r="C3" s="1">
         <v>45359</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="2">
@@ -1171,21 +913,21 @@
       <c r="K3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L3" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="M3" t="s" s="0">
-        <v>115</v>
+      <c r="L3" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" t="s">
+        <v>113</v>
       </c>
       <c r="N3" s="2">
         <v>1</v>
       </c>
-      <c r="O3" t="s" s="0">
+      <c r="O3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="str" s="0">
+      <c r="A4" t="str">
         <f ca="1">IF(COUNTBLANK(B4:O4)&gt;0,IF(COUNTBLANK(B4:O4)=14,"",CONCATENATE("Inprogress",IF(ISBLANK(B4),"-Invoice Number is blank",""))),
 CONCATENATE(
 IF(COUNTBLANK(B4:N4)&lt;=0,ROW(B4)-1,""),
@@ -1202,7 +944,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="str" s="0">
+      <c r="A5" t="str">
         <f ca="1">IF(COUNTBLANK(B5:O5)&gt;0,IF(COUNTBLANK(B5:O5)=14,"",CONCATENATE("Inprogress",IF(ISBLANK(B5),"-Invoice Number is blank",""))),
 CONCATENATE(
 IF(COUNTBLANK(B5:N5)&lt;=0,ROW(B5)-1,""),
@@ -1219,7 +961,7 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="str" s="0">
+      <c r="A6" t="str">
         <f ca="1">IF(COUNTBLANK(B6:O6)&gt;0,IF(COUNTBLANK(B6:O6)=14,"",CONCATENATE("Inprogress",IF(ISBLANK(B6),"-Invoice Number is blank",""))),
 CONCATENATE(
 IF(COUNTBLANK(B6:N6)&lt;=0,ROW(B6)-1,""),
@@ -1236,7 +978,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="str" s="0">
+      <c r="A7" t="str">
         <f ca="1">IF(COUNTBLANK(B7:O7)&gt;0,IF(COUNTBLANK(B7:O7)=14,"",CONCATENATE("Inprogress",IF(ISBLANK(B7),"-Invoice Number is blank",""))),
 CONCATENATE(
 IF(COUNTBLANK(B7:N7)&lt;=0,ROW(B7)-1,""),
@@ -1253,7 +995,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="str" s="0">
+      <c r="A8" t="str">
         <f ca="1">IF(COUNTBLANK(B8:O8)&gt;0,IF(COUNTBLANK(B8:O8)=14,"",CONCATENATE("Inprogress",IF(ISBLANK(B8),"-Invoice Number is blank",""))),
 CONCATENATE(
 IF(COUNTBLANK(B8:N8)&lt;=0,ROW(B8)-1,""),
@@ -1270,7 +1012,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="str" s="0">
+      <c r="A9" t="str">
         <f ca="1">IF(COUNTBLANK(B9:O9)&gt;0,IF(COUNTBLANK(B9:O9)=14,"",CONCATENATE("Inprogress",IF(ISBLANK(B9),"-Invoice Number is blank",""))),
 CONCATENATE(
 IF(COUNTBLANK(B9:N9)&lt;=0,ROW(B9)-1,""),
@@ -1287,7 +1029,7 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="str" s="0">
+      <c r="A10" t="str">
         <f ca="1">IF(COUNTBLANK(B10:O10)&gt;0,IF(COUNTBLANK(B10:O10)=14,"",CONCATENATE("Inprogress",IF(ISBLANK(B10),"-Invoice Number is blank",""))),
 CONCATENATE(
 IF(COUNTBLANK(B10:N10)&lt;=0,ROW(B10)-1,""),
@@ -1304,7 +1046,7 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" t="str" s="0">
+      <c r="A11" t="str">
         <f ca="1">IF(COUNTBLANK(B11:O11)&gt;0,IF(COUNTBLANK(B11:O11)=14,"",CONCATENATE("Inprogress",IF(ISBLANK(B11),"-Invoice Number is blank",""))),
 CONCATENATE(
 IF(COUNTBLANK(B11:N11)&lt;=0,ROW(B11)-1,""),
@@ -1321,7 +1063,7 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="str" s="0">
+      <c r="A12" t="str">
         <f ca="1">IF(COUNTBLANK(B12:O12)&gt;0,IF(COUNTBLANK(B12:O12)=14,"",CONCATENATE("Inprogress",IF(ISBLANK(B12),"-Invoice Number is blank",""))),
 CONCATENATE(
 IF(COUNTBLANK(B12:N12)&lt;=0,ROW(B12)-1,""),
@@ -1338,7 +1080,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="str" s="0">
+      <c r="A13" t="str">
         <f ca="1">IF(COUNTBLANK(B13:O13)&gt;0,IF(COUNTBLANK(B13:O13)=14,"",CONCATENATE("Inprogress",IF(ISBLANK(B13),"-Invoice Number is blank",""))),
 CONCATENATE(
 IF(COUNTBLANK(B13:N13)&lt;=0,ROW(B13)-1,""),
@@ -1355,7 +1097,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="str" s="0">
+      <c r="A14" t="str">
         <f ca="1">IF(COUNTBLANK(B14:O14)&gt;0,IF(COUNTBLANK(B14:O14)=14,"",CONCATENATE("Inprogress",IF(ISBLANK(B14),"-Invoice Number is blank",""))),
 CONCATENATE(
 IF(COUNTBLANK(B14:N14)&lt;=0,ROW(B14)-1,""),
@@ -1372,7 +1114,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="str" s="0">
+      <c r="A15" t="str">
         <f ca="1">IF(COUNTBLANK(B15:O15)&gt;0,IF(COUNTBLANK(B15:O15)=14,"",CONCATENATE("Inprogress",IF(ISBLANK(B15),"-Invoice Number is blank",""))),
 CONCATENATE(
 IF(COUNTBLANK(B15:N15)&lt;=0,ROW(B15)-1,""),
@@ -1389,7 +1131,7 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="str" s="0">
+      <c r="A16" t="str">
         <f ca="1">IF(COUNTBLANK(B16:O16)&gt;0,IF(COUNTBLANK(B16:O16)=14,"",CONCATENATE("Inprogress",IF(ISBLANK(B16),"-Invoice Number is blank",""))),
 CONCATENATE(
 IF(COUNTBLANK(B16:N16)&lt;=0,ROW(B16)-1,""),
@@ -1406,7 +1148,7 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="str" s="0">
+      <c r="A17" t="str">
         <f ca="1">IF(COUNTBLANK(B17:O17)&gt;0,IF(COUNTBLANK(B17:O17)=14,"",CONCATENATE("Inprogress",IF(ISBLANK(B17),"-Invoice Number is blank",""))),
 CONCATENATE(
 IF(COUNTBLANK(B17:N17)&lt;=0,ROW(B17)-1,""),
@@ -1423,7 +1165,7 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="str" s="0">
+      <c r="A18" t="str">
         <f ca="1">IF(COUNTBLANK(B18:O18)&gt;0,IF(COUNTBLANK(B18:O18)=14,"",CONCATENATE("Inprogress",IF(ISBLANK(B18),"-Invoice Number is blank",""))),
 CONCATENATE(
 IF(COUNTBLANK(B18:N18)&lt;=0,ROW(B18)-1,""),
@@ -1440,7 +1182,7 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="str" s="0">
+      <c r="A19" t="str">
         <f ca="1">IF(COUNTBLANK(B19:O19)&gt;0,IF(COUNTBLANK(B19:O19)=14,"",CONCATENATE("Inprogress",IF(ISBLANK(B19),"-Invoice Number is blank",""))),
 CONCATENATE(
 IF(COUNTBLANK(B19:N19)&lt;=0,ROW(B19)-1,""),
@@ -1457,7 +1199,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="str" s="0">
+      <c r="A20" t="str">
         <f ca="1">IF(COUNTBLANK(B20:O20)&gt;0,IF(COUNTBLANK(B20:O20)=14,"",CONCATENATE("Inprogress",IF(ISBLANK(B20),"-Invoice Number is blank",""))),
 CONCATENATE(
 IF(COUNTBLANK(B20:N20)&lt;=0,ROW(B20)-1,""),
@@ -1474,7 +1216,7 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="str" s="0">
+      <c r="A21" t="str">
         <f ca="1">IF(COUNTBLANK(B21:O21)&gt;0,IF(COUNTBLANK(B21:O21)=14,"",CONCATENATE("Inprogress",IF(ISBLANK(B21),"-Invoice Number is blank",""))),
 CONCATENATE(
 IF(COUNTBLANK(B21:N21)&lt;=0,ROW(B21)-1,""),
@@ -1524,47 +1266,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.81640625"/>
-    <col min="2" max="2" customWidth="true" width="15.54296875"/>
-    <col min="3" max="3" customWidth="true" style="2" width="13.7265625"/>
-    <col min="4" max="4" customWidth="true" width="24.0"/>
-    <col min="5" max="5" customWidth="true" width="17.0"/>
-    <col min="6" max="6" customWidth="true" width="41.453125"/>
-    <col min="7" max="7" customWidth="true" width="24.1796875"/>
-    <col min="8" max="8" customWidth="true" style="3" width="21.1796875"/>
+    <col min="1" max="1" width="27.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="41.453125" customWidth="1"/>
+    <col min="7" max="7" width="24.1796875" customWidth="1"/>
+    <col min="8" max="8" width="21.1796875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="str" s="0">
+      <c r="A2" t="str">
         <f>IF(COUNTBLANK(B2:H2)&gt;0,IF(COUNTBLANK(B2:H2)=7,"","Inprogress"),
 CONCATENATE(
 IF(B2="","-Invalid Invoice No",""),
@@ -1573,33 +1315,33 @@
 ))</f>
         <v/>
       </c>
-      <c r="B2" t="s" s="0">
-        <v>200</v>
+      <c r="B2" t="s">
+        <v>114</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="str" s="0">
+      <c r="A3" t="str">
         <f>IF(COUNTBLANK(B3:H3)&gt;0,IF(COUNTBLANK(B3:H3)=7,"","Inprogress"),
 CONCATENATE(
 IF(B3="","-Invalid Invoice No",""),
@@ -1608,33 +1350,33 @@
 ))</f>
         <v/>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>201</v>
+      <c r="B3" t="s">
+        <v>115</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>25</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="str" s="0">
+      <c r="A4" t="str">
         <f>IF(COUNTBLANK(B4:H4)&gt;0,IF(COUNTBLANK(B4:H4)=7,"","Inprogress"),
 CONCATENATE(
 IF(B4="","-Invalid Invoice No",""),
@@ -1645,7 +1387,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="str" s="0">
+      <c r="A5" t="str">
         <f>IF(COUNTBLANK(B5:H5)&gt;0,IF(COUNTBLANK(B5:H5)=7,"","Inprogress"),
 CONCATENATE(
 IF(B5="","-Invalid Invoice No",""),
@@ -1656,7 +1398,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="str" s="0">
+      <c r="A6" t="str">
         <f>IF(COUNTBLANK(B6:H6)&gt;0,IF(COUNTBLANK(B6:H6)=7,"","Inprogress"),
 CONCATENATE(
 IF(B6="","-Invalid Invoice No",""),
@@ -1667,7 +1409,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="str" s="0">
+      <c r="A7" t="str">
         <f>IF(COUNTBLANK(B7:H7)&gt;0,IF(COUNTBLANK(B7:H7)=7,"","Inprogress"),
 CONCATENATE(
 IF(B7="","-Invalid Invoice No",""),
@@ -1678,7 +1420,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="str" s="0">
+      <c r="A8" t="str">
         <f>IF(COUNTBLANK(B8:H8)&gt;0,IF(COUNTBLANK(B8:H8)=7,"","Inprogress"),
 CONCATENATE(
 IF(B8="","-Invalid Invoice No",""),
@@ -1689,7 +1431,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="str" s="0">
+      <c r="A9" t="str">
         <f>IF(COUNTBLANK(B9:H9)&gt;0,IF(COUNTBLANK(B9:H9)=7,"","Inprogress"),
 CONCATENATE(
 IF(B9="","-Invalid Invoice No",""),
@@ -1700,7 +1442,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="str" s="0">
+      <c r="A10" t="str">
         <f>IF(COUNTBLANK(B10:H10)&gt;0,IF(COUNTBLANK(B10:H10)=7,"","Inprogress"),
 CONCATENATE(
 IF(B10="","-Invalid Invoice No",""),
@@ -1711,7 +1453,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="str" s="0">
+      <c r="A11" t="str">
         <f>IF(COUNTBLANK(B11:H11)&gt;0,IF(COUNTBLANK(B11:H11)=7,"","Inprogress"),
 CONCATENATE(
 IF(B11="","-Invalid Invoice No",""),
@@ -1722,7 +1464,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="str" s="0">
+      <c r="A12" t="str">
         <f>IF(COUNTBLANK(B12:H12)&gt;0,IF(COUNTBLANK(B12:H12)=7,"","Inprogress"),
 CONCATENATE(
 IF(B12="","-Invalid Invoice No",""),
@@ -1733,7 +1475,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="str" s="0">
+      <c r="A13" t="str">
         <f>IF(COUNTBLANK(B13:H13)&gt;0,IF(COUNTBLANK(B13:H13)=7,"","Inprogress"),
 CONCATENATE(
 IF(B13="","-Invalid Invoice No",""),
@@ -1744,7 +1486,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="str" s="0">
+      <c r="A14" t="str">
         <f>IF(COUNTBLANK(B14:H14)&gt;0,IF(COUNTBLANK(B14:H14)=7,"","Inprogress"),
 CONCATENATE(
 IF(B14="","-Invalid Invoice No",""),
@@ -1755,7 +1497,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="str" s="0">
+      <c r="A15" t="str">
         <f>IF(COUNTBLANK(B15:H15)&gt;0,IF(COUNTBLANK(B15:H15)=7,"","Inprogress"),
 CONCATENATE(
 IF(B15="","-Invalid Invoice No",""),
@@ -1766,7 +1508,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="str" s="0">
+      <c r="A16" t="str">
         <f>IF(COUNTBLANK(B16:H16)&gt;0,IF(COUNTBLANK(B16:H16)=7,"","Inprogress"),
 CONCATENATE(
 IF(B16="","-Invalid Invoice No",""),
@@ -1777,7 +1519,7 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="str" s="0">
+      <c r="A17" t="str">
         <f>IF(COUNTBLANK(B17:H17)&gt;0,IF(COUNTBLANK(B17:H17)=7,"","Inprogress"),
 CONCATENATE(
 IF(B17="","-Invalid Invoice No",""),
@@ -1788,7 +1530,7 @@
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="str" s="0">
+      <c r="A18" t="str">
         <f>IF(COUNTBLANK(B18:H18)&gt;0,IF(COUNTBLANK(B18:H18)=7,"","Inprogress"),
 CONCATENATE(
 IF(B18="","-Invalid Invoice No",""),
@@ -1799,7 +1541,7 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="str" s="0">
+      <c r="A19" t="str">
         <f>IF(COUNTBLANK(B19:H19)&gt;0,IF(COUNTBLANK(B19:H19)=7,"","Inprogress"),
 CONCATENATE(
 IF(B19="","-Invalid Invoice No",""),
@@ -1810,7 +1552,7 @@
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="str" s="0">
+      <c r="A20" t="str">
         <f>IF(COUNTBLANK(B20:H20)&gt;0,IF(COUNTBLANK(B20:H20)=7,"","Inprogress"),
 CONCATENATE(
 IF(B20="","-Invalid Invoice No",""),
@@ -1821,7 +1563,7 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="str" s="0">
+      <c r="A21" t="str">
         <f>IF(COUNTBLANK(B21:H21)&gt;0,IF(COUNTBLANK(B21:H21)=7,"","Inprogress"),
 CONCATENATE(
 IF(B21="","-Invalid Invoice No",""),
@@ -1832,7 +1574,7 @@
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="str" s="0">
+      <c r="A22" t="str">
         <f>IF(COUNTBLANK(B22:H22)&gt;0,IF(COUNTBLANK(B22:H22)=7,"","Inprogress"),
 CONCATENATE(
 IF(B22="","-Invalid Invoice No",""),
@@ -1843,7 +1585,7 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="str" s="0">
+      <c r="A23" t="str">
         <f>IF(COUNTBLANK(B23:H23)&gt;0,IF(COUNTBLANK(B23:H23)=7,"","Inprogress"),
 CONCATENATE(
 IF(B23="","-Invalid Invoice No",""),
@@ -1854,7 +1596,7 @@
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="str" s="0">
+      <c r="A24" t="str">
         <f>IF(COUNTBLANK(B24:H24)&gt;0,IF(COUNTBLANK(B24:H24)=7,"","Inprogress"),
 CONCATENATE(
 IF(B24="","-Invalid Invoice No",""),
@@ -1865,7 +1607,7 @@
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="str" s="0">
+      <c r="A25" t="str">
         <f>IF(COUNTBLANK(B25:H25)&gt;0,IF(COUNTBLANK(B25:H25)=7,"","Inprogress"),
 CONCATENATE(
 IF(B25="","-Invalid Invoice No",""),
@@ -1876,7 +1618,7 @@
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="str" s="0">
+      <c r="A26" t="str">
         <f>IF(COUNTBLANK(B26:H26)&gt;0,IF(COUNTBLANK(B26:H26)=7,"","Inprogress"),
 CONCATENATE(
 IF(B26="","-Invalid Invoice No",""),
@@ -1887,7 +1629,7 @@
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="str" s="0">
+      <c r="A27" t="str">
         <f>IF(COUNTBLANK(B27:H27)&gt;0,IF(COUNTBLANK(B27:H27)=7,"","Inprogress"),
 CONCATENATE(
 IF(B27="","-Invalid Invoice No",""),
@@ -1898,7 +1640,7 @@
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="str" s="0">
+      <c r="A28" t="str">
         <f>IF(COUNTBLANK(B28:H28)&gt;0,IF(COUNTBLANK(B28:H28)=7,"","Inprogress"),
 CONCATENATE(
 IF(B28="","-Invalid Invoice No",""),
@@ -1909,7 +1651,7 @@
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="str" s="0">
+      <c r="A29" t="str">
         <f>IF(COUNTBLANK(B29:H29)&gt;0,IF(COUNTBLANK(B29:H29)=7,"","Inprogress"),
 CONCATENATE(
 IF(B29="","-Invalid Invoice No",""),
@@ -1919,8 +1661,8 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="str" s="0">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" t="str">
         <f>IF(COUNTBLANK(B30:H30)&gt;0,IF(COUNTBLANK(B30:H30)=7,"","Inprogress"),
 CONCATENATE(
 IF(B30="","-Invalid Invoice No",""),
@@ -1930,8 +1672,8 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="str" s="0">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" t="str">
         <f>IF(COUNTBLANK(B31:H31)&gt;0,IF(COUNTBLANK(B31:H31)=7,"","Inprogress"),
 CONCATENATE(
 IF(B31="","-Invalid Invoice No",""),
@@ -1941,8 +1683,8 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="str" s="0">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" t="str">
         <f>IF(COUNTBLANK(B32:H32)&gt;0,IF(COUNTBLANK(B32:H32)=7,"","Inprogress"),
 CONCATENATE(
 IF(B32="","-Invalid Invoice No",""),
@@ -1953,7 +1695,7 @@
       </c>
     </row>
     <row r="33" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" t="str" s="0">
+      <c r="A33" t="str">
         <f>IF(COUNTBLANK(B33:H33)&gt;0,IF(COUNTBLANK(B33:H33)=7,"","Inprogress"),
 CONCATENATE(
 IF(B33="","-Invalid Invoice No",""),
@@ -1964,7 +1706,7 @@
       </c>
     </row>
     <row r="34" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" t="str" s="0">
+      <c r="A34" t="str">
         <f>IF(COUNTBLANK(B34:H34)&gt;0,IF(COUNTBLANK(B34:H34)=7,"","Inprogress"),
 CONCATENATE(
 IF(B34="","-Invalid Invoice No",""),
@@ -1975,7 +1717,7 @@
       </c>
     </row>
     <row r="35" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" t="str" s="0">
+      <c r="A35" t="str">
         <f>IF(COUNTBLANK(B35:H35)&gt;0,IF(COUNTBLANK(B35:H35)=7,"","Inprogress"),
 CONCATENATE(
 IF(B35="","-Invalid Invoice No",""),
@@ -1986,7 +1728,7 @@
       </c>
     </row>
     <row r="36" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" t="str" s="0">
+      <c r="A36" t="str">
         <f>IF(COUNTBLANK(B36:H36)&gt;0,IF(COUNTBLANK(B36:H36)=7,"","Inprogress"),
 CONCATENATE(
 IF(B36="","-Invalid Invoice No",""),
@@ -1997,7 +1739,7 @@
       </c>
     </row>
     <row r="37" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" t="str" s="0">
+      <c r="A37" t="str">
         <f>IF(COUNTBLANK(B37:H37)&gt;0,IF(COUNTBLANK(B37:H37)=7,"","Inprogress"),
 CONCATENATE(
 IF(B37="","-Invalid Invoice No",""),
@@ -2008,7 +1750,7 @@
       </c>
     </row>
     <row r="38" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" t="str" s="0">
+      <c r="A38" t="str">
         <f>IF(COUNTBLANK(B38:H38)&gt;0,IF(COUNTBLANK(B38:H38)=7,"","Inprogress"),
 CONCATENATE(
 IF(B38="","-Invalid Invoice No",""),
@@ -2019,7 +1761,7 @@
       </c>
     </row>
     <row r="39" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" t="str" s="0">
+      <c r="A39" t="str">
         <f>IF(COUNTBLANK(B39:H39)&gt;0,IF(COUNTBLANK(B39:H39)=7,"","Inprogress"),
 CONCATENATE(
 IF(B39="","-Invalid Invoice No",""),
@@ -2030,7 +1772,7 @@
       </c>
     </row>
     <row r="40" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" t="str" s="0">
+      <c r="A40" t="str">
         <f>IF(COUNTBLANK(B40:H40)&gt;0,IF(COUNTBLANK(B40:H40)=7,"","Inprogress"),
 CONCATENATE(
 IF(B40="","-Invalid Invoice No",""),
@@ -2041,7 +1783,7 @@
       </c>
     </row>
     <row r="41" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" t="str" s="0">
+      <c r="A41" t="str">
         <f>IF(COUNTBLANK(B41:H41)&gt;0,IF(COUNTBLANK(B41:H41)=7,"","Inprogress"),
 CONCATENATE(
 IF(B41="","-Invalid Invoice No",""),
@@ -2052,7 +1794,7 @@
       </c>
     </row>
     <row r="42" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" t="str" s="0">
+      <c r="A42" t="str">
         <f>IF(COUNTBLANK(B42:H42)&gt;0,IF(COUNTBLANK(B42:H42)=7,"","Inprogress"),
 CONCATENATE(
 IF(B42="","-Invalid Invoice No",""),
@@ -2063,7 +1805,7 @@
       </c>
     </row>
     <row r="43" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" t="str" s="0">
+      <c r="A43" t="str">
         <f>IF(COUNTBLANK(B43:H43)&gt;0,IF(COUNTBLANK(B43:H43)=7,"","Inprogress"),
 CONCATENATE(
 IF(B43="","-Invalid Invoice No",""),
@@ -2074,7 +1816,7 @@
       </c>
     </row>
     <row r="44" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" t="str" s="0">
+      <c r="A44" t="str">
         <f>IF(COUNTBLANK(B44:H44)&gt;0,IF(COUNTBLANK(B44:H44)=7,"","Inprogress"),
 CONCATENATE(
 IF(B44="","-Invalid Invoice No",""),
@@ -2085,7 +1827,7 @@
       </c>
     </row>
     <row r="45" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" t="str" s="0">
+      <c r="A45" t="str">
         <f>IF(COUNTBLANK(B45:H45)&gt;0,IF(COUNTBLANK(B45:H45)=7,"","Inprogress"),
 CONCATENATE(
 IF(B45="","-Invalid Invoice No",""),
@@ -2096,7 +1838,7 @@
       </c>
     </row>
     <row r="46" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" t="str" s="0">
+      <c r="A46" t="str">
         <f>IF(COUNTBLANK(B46:H46)&gt;0,IF(COUNTBLANK(B46:H46)=7,"","Inprogress"),
 CONCATENATE(
 IF(B46="","-Invalid Invoice No",""),
@@ -2107,7 +1849,7 @@
       </c>
     </row>
     <row r="47" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" t="str" s="0">
+      <c r="A47" t="str">
         <f>IF(COUNTBLANK(B47:H47)&gt;0,IF(COUNTBLANK(B47:H47)=7,"","Inprogress"),
 CONCATENATE(
 IF(B47="","-Invalid Invoice No",""),
@@ -2118,7 +1860,7 @@
       </c>
     </row>
     <row r="48" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" t="str" s="0">
+      <c r="A48" t="str">
         <f>IF(COUNTBLANK(B48:H48)&gt;0,IF(COUNTBLANK(B48:H48)=7,"","Inprogress"),
 CONCATENATE(
 IF(B48="","-Invalid Invoice No",""),
@@ -2129,7 +1871,7 @@
       </c>
     </row>
     <row r="49" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" t="str" s="0">
+      <c r="A49" t="str">
         <f>IF(COUNTBLANK(B49:H49)&gt;0,IF(COUNTBLANK(B49:H49)=7,"","Inprogress"),
 CONCATENATE(
 IF(B49="","-Invalid Invoice No",""),
@@ -2140,7 +1882,7 @@
       </c>
     </row>
     <row r="50" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" t="str" s="0">
+      <c r="A50" t="str">
         <f>IF(COUNTBLANK(B50:H50)&gt;0,IF(COUNTBLANK(B50:H50)=7,"","Inprogress"),
 CONCATENATE(
 IF(B50="","-Invalid Invoice No",""),
@@ -2151,7 +1893,7 @@
       </c>
     </row>
     <row r="51" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" t="str" s="0">
+      <c r="A51" t="str">
         <f>IF(COUNTBLANK(B51:H51)&gt;0,IF(COUNTBLANK(B51:H51)=7,"","Inprogress"),
 CONCATENATE(
 IF(B51="","-Invalid Invoice No",""),
@@ -2162,7 +1904,7 @@
       </c>
     </row>
     <row r="52" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" t="str" s="0">
+      <c r="A52" t="str">
         <f>IF(COUNTBLANK(B52:H52)&gt;0,IF(COUNTBLANK(B52:H52)=7,"","Inprogress"),
 CONCATENATE(
 IF(B52="","-Invalid Invoice No",""),
@@ -2173,7 +1915,7 @@
       </c>
     </row>
     <row r="53" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" t="str" s="0">
+      <c r="A53" t="str">
         <f>IF(COUNTBLANK(B53:H53)&gt;0,IF(COUNTBLANK(B53:H53)=7,"","Inprogress"),
 CONCATENATE(
 IF(B53="","-Invalid Invoice No",""),
@@ -2184,7 +1926,7 @@
       </c>
     </row>
     <row r="54" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" t="str" s="0">
+      <c r="A54" t="str">
         <f>IF(COUNTBLANK(B54:H54)&gt;0,IF(COUNTBLANK(B54:H54)=7,"","Inprogress"),
 CONCATENATE(
 IF(B54="","-Invalid Invoice No",""),
@@ -2195,7 +1937,7 @@
       </c>
     </row>
     <row r="55" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" t="str" s="0">
+      <c r="A55" t="str">
         <f>IF(COUNTBLANK(B55:H55)&gt;0,IF(COUNTBLANK(B55:H55)=7,"","Inprogress"),
 CONCATENATE(
 IF(B55="","-Invalid Invoice No",""),
@@ -2206,7 +1948,7 @@
       </c>
     </row>
     <row r="56" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" t="str" s="0">
+      <c r="A56" t="str">
         <f>IF(COUNTBLANK(B56:H56)&gt;0,IF(COUNTBLANK(B56:H56)=7,"","Inprogress"),
 CONCATENATE(
 IF(B56="","-Invalid Invoice No",""),
@@ -2217,7 +1959,7 @@
       </c>
     </row>
     <row r="57" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" t="str" s="0">
+      <c r="A57" t="str">
         <f>IF(COUNTBLANK(B57:H57)&gt;0,IF(COUNTBLANK(B57:H57)=7,"","Inprogress"),
 CONCATENATE(
 IF(B57="","-Invalid Invoice No",""),
@@ -2228,7 +1970,7 @@
       </c>
     </row>
     <row r="58" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" t="str" s="0">
+      <c r="A58" t="str">
         <f>IF(COUNTBLANK(B58:H58)&gt;0,IF(COUNTBLANK(B58:H58)=7,"","Inprogress"),
 CONCATENATE(
 IF(B58="","-Invalid Invoice No",""),
@@ -2239,7 +1981,7 @@
       </c>
     </row>
     <row r="59" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" t="str" s="0">
+      <c r="A59" t="str">
         <f>IF(COUNTBLANK(B59:H59)&gt;0,IF(COUNTBLANK(B59:H59)=7,"","Inprogress"),
 CONCATENATE(
 IF(B59="","-Invalid Invoice No",""),
@@ -2250,7 +1992,7 @@
       </c>
     </row>
     <row r="60" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" t="str" s="0">
+      <c r="A60" t="str">
         <f>IF(COUNTBLANK(B60:H60)&gt;0,IF(COUNTBLANK(B60:H60)=7,"","Inprogress"),
 CONCATENATE(
 IF(B60="","-Invalid Invoice No",""),
@@ -2261,7 +2003,7 @@
       </c>
     </row>
     <row r="61" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" t="str" s="0">
+      <c r="A61" t="str">
         <f>IF(COUNTBLANK(B61:H61)&gt;0,IF(COUNTBLANK(B61:H61)=7,"","Inprogress"),
 CONCATENATE(
 IF(B61="","-Invalid Invoice No",""),
@@ -2272,7 +2014,7 @@
       </c>
     </row>
     <row r="62" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" t="str" s="0">
+      <c r="A62" t="str">
         <f>IF(COUNTBLANK(B62:H62)&gt;0,IF(COUNTBLANK(B62:H62)=7,"","Inprogress"),
 CONCATENATE(
 IF(B62="","-Invalid Invoice No",""),
@@ -2283,7 +2025,7 @@
       </c>
     </row>
     <row r="63" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" t="str" s="0">
+      <c r="A63" t="str">
         <f>IF(COUNTBLANK(B63:H63)&gt;0,IF(COUNTBLANK(B63:H63)=7,"","Inprogress"),
 CONCATENATE(
 IF(B63="","-Invalid Invoice No",""),
@@ -2294,7 +2036,7 @@
       </c>
     </row>
     <row r="64" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" t="str" s="0">
+      <c r="A64" t="str">
         <f>IF(COUNTBLANK(B64:H64)&gt;0,IF(COUNTBLANK(B64:H64)=7,"","Inprogress"),
 CONCATENATE(
 IF(B64="","-Invalid Invoice No",""),
@@ -2305,7 +2047,7 @@
       </c>
     </row>
     <row r="65" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" t="str" s="0">
+      <c r="A65" t="str">
         <f>IF(COUNTBLANK(B65:H65)&gt;0,IF(COUNTBLANK(B65:H65)=7,"","Inprogress"),
 CONCATENATE(
 IF(B65="","-Invalid Invoice No",""),
@@ -2316,7 +2058,7 @@
       </c>
     </row>
     <row r="66" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" t="str" s="0">
+      <c r="A66" t="str">
         <f>IF(COUNTBLANK(B66:H66)&gt;0,IF(COUNTBLANK(B66:H66)=7,"","Inprogress"),
 CONCATENATE(
 IF(B66="","-Invalid Invoice No",""),
@@ -2327,7 +2069,7 @@
       </c>
     </row>
     <row r="67" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" t="str" s="0">
+      <c r="A67" t="str">
         <f>IF(COUNTBLANK(B67:H67)&gt;0,IF(COUNTBLANK(B67:H67)=7,"","Inprogress"),
 CONCATENATE(
 IF(B67="","-Invalid Invoice No",""),
@@ -2338,7 +2080,7 @@
       </c>
     </row>
     <row r="68" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" t="str" s="0">
+      <c r="A68" t="str">
         <f>IF(COUNTBLANK(B68:H68)&gt;0,IF(COUNTBLANK(B68:H68)=7,"","Inprogress"),
 CONCATENATE(
 IF(B68="","-Invalid Invoice No",""),
@@ -2349,7 +2091,7 @@
       </c>
     </row>
     <row r="69" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" t="str" s="0">
+      <c r="A69" t="str">
         <f>IF(COUNTBLANK(B69:H69)&gt;0,IF(COUNTBLANK(B69:H69)=7,"","Inprogress"),
 CONCATENATE(
 IF(B69="","-Invalid Invoice No",""),
@@ -2360,7 +2102,7 @@
       </c>
     </row>
     <row r="70" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" t="str" s="0">
+      <c r="A70" t="str">
         <f>IF(COUNTBLANK(B70:H70)&gt;0,IF(COUNTBLANK(B70:H70)=7,"","Inprogress"),
 CONCATENATE(
 IF(B70="","-Invalid Invoice No",""),
@@ -2371,7 +2113,7 @@
       </c>
     </row>
     <row r="71" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" t="str" s="0">
+      <c r="A71" t="str">
         <f>IF(COUNTBLANK(B71:H71)&gt;0,IF(COUNTBLANK(B71:H71)=7,"","Inprogress"),
 CONCATENATE(
 IF(B71="","-Invalid Invoice No",""),
@@ -2382,7 +2124,7 @@
       </c>
     </row>
     <row r="72" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" t="str" s="0">
+      <c r="A72" t="str">
         <f>IF(COUNTBLANK(B72:H72)&gt;0,IF(COUNTBLANK(B72:H72)=7,"","Inprogress"),
 CONCATENATE(
 IF(B72="","-Invalid Invoice No",""),
@@ -2393,7 +2135,7 @@
       </c>
     </row>
     <row r="73" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" t="str" s="0">
+      <c r="A73" t="str">
         <f>IF(COUNTBLANK(B73:H73)&gt;0,IF(COUNTBLANK(B73:H73)=7,"","Inprogress"),
 CONCATENATE(
 IF(B73="","-Invalid Invoice No",""),
@@ -2404,7 +2146,7 @@
       </c>
     </row>
     <row r="74" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" t="str" s="0">
+      <c r="A74" t="str">
         <f>IF(COUNTBLANK(B74:H74)&gt;0,IF(COUNTBLANK(B74:H74)=7,"","Inprogress"),
 CONCATENATE(
 IF(B74="","-Invalid Invoice No",""),
@@ -2415,7 +2157,7 @@
       </c>
     </row>
     <row r="75" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" t="str" s="0">
+      <c r="A75" t="str">
         <f>IF(COUNTBLANK(B75:H75)&gt;0,IF(COUNTBLANK(B75:H75)=7,"","Inprogress"),
 CONCATENATE(
 IF(B75="","-Invalid Invoice No",""),
@@ -2426,7 +2168,7 @@
       </c>
     </row>
     <row r="76" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" t="str" s="0">
+      <c r="A76" t="str">
         <f>IF(COUNTBLANK(B76:H76)&gt;0,IF(COUNTBLANK(B76:H76)=7,"","Inprogress"),
 CONCATENATE(
 IF(B76="","-Invalid Invoice No",""),
@@ -2437,7 +2179,7 @@
       </c>
     </row>
     <row r="77" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" t="str" s="0">
+      <c r="A77" t="str">
         <f>IF(COUNTBLANK(B77:H77)&gt;0,IF(COUNTBLANK(B77:H77)=7,"","Inprogress"),
 CONCATENATE(
 IF(B77="","-Invalid Invoice No",""),
@@ -2448,7 +2190,7 @@
       </c>
     </row>
     <row r="78" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" t="str" s="0">
+      <c r="A78" t="str">
         <f>IF(COUNTBLANK(B78:H78)&gt;0,IF(COUNTBLANK(B78:H78)=7,"","Inprogress"),
 CONCATENATE(
 IF(B78="","-Invalid Invoice No",""),
@@ -2459,7 +2201,7 @@
       </c>
     </row>
     <row r="79" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" t="str" s="0">
+      <c r="A79" t="str">
         <f>IF(COUNTBLANK(B79:H79)&gt;0,IF(COUNTBLANK(B79:H79)=7,"","Inprogress"),
 CONCATENATE(
 IF(B79="","-Invalid Invoice No",""),
@@ -2470,7 +2212,7 @@
       </c>
     </row>
     <row r="80" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" t="str" s="0">
+      <c r="A80" t="str">
         <f>IF(COUNTBLANK(B80:H80)&gt;0,IF(COUNTBLANK(B80:H80)=7,"","Inprogress"),
 CONCATENATE(
 IF(B80="","-Invalid Invoice No",""),
@@ -2481,7 +2223,7 @@
       </c>
     </row>
     <row r="81" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" t="str" s="0">
+      <c r="A81" t="str">
         <f>IF(COUNTBLANK(B81:H81)&gt;0,IF(COUNTBLANK(B81:H81)=7,"","Inprogress"),
 CONCATENATE(
 IF(B81="","-Invalid Invoice No",""),
@@ -2492,7 +2234,7 @@
       </c>
     </row>
     <row r="82" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" t="str" s="0">
+      <c r="A82" t="str">
         <f>IF(COUNTBLANK(B82:H82)&gt;0,IF(COUNTBLANK(B82:H82)=7,"","Inprogress"),
 CONCATENATE(
 IF(B82="","-Invalid Invoice No",""),
@@ -2503,7 +2245,7 @@
       </c>
     </row>
     <row r="83" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" t="str" s="0">
+      <c r="A83" t="str">
         <f>IF(COUNTBLANK(B83:H83)&gt;0,IF(COUNTBLANK(B83:H83)=7,"","Inprogress"),
 CONCATENATE(
 IF(B83="","-Invalid Invoice No",""),
@@ -2514,7 +2256,7 @@
       </c>
     </row>
     <row r="84" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" t="str" s="0">
+      <c r="A84" t="str">
         <f>IF(COUNTBLANK(B84:H84)&gt;0,IF(COUNTBLANK(B84:H84)=7,"","Inprogress"),
 CONCATENATE(
 IF(B84="","-Invalid Invoice No",""),
@@ -2525,7 +2267,7 @@
       </c>
     </row>
     <row r="85" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" t="str" s="0">
+      <c r="A85" t="str">
         <f>IF(COUNTBLANK(B85:H85)&gt;0,IF(COUNTBLANK(B85:H85)=7,"","Inprogress"),
 CONCATENATE(
 IF(B85="","-Invalid Invoice No",""),
@@ -2536,7 +2278,7 @@
       </c>
     </row>
     <row r="86" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" t="str" s="0">
+      <c r="A86" t="str">
         <f>IF(COUNTBLANK(B86:H86)&gt;0,IF(COUNTBLANK(B86:H86)=7,"","Inprogress"),
 CONCATENATE(
 IF(B86="","-Invalid Invoice No",""),
@@ -2547,7 +2289,7 @@
       </c>
     </row>
     <row r="87" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" t="str" s="0">
+      <c r="A87" t="str">
         <f>IF(COUNTBLANK(B87:H87)&gt;0,IF(COUNTBLANK(B87:H87)=7,"","Inprogress"),
 CONCATENATE(
 IF(B87="","-Invalid Invoice No",""),
@@ -2558,7 +2300,7 @@
       </c>
     </row>
     <row r="88" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" t="str" s="0">
+      <c r="A88" t="str">
         <f>IF(COUNTBLANK(B88:H88)&gt;0,IF(COUNTBLANK(B88:H88)=7,"","Inprogress"),
 CONCATENATE(
 IF(B88="","-Invalid Invoice No",""),
@@ -2569,7 +2311,7 @@
       </c>
     </row>
     <row r="89" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" t="str" s="0">
+      <c r="A89" t="str">
         <f>IF(COUNTBLANK(B89:H89)&gt;0,IF(COUNTBLANK(B89:H89)=7,"","Inprogress"),
 CONCATENATE(
 IF(B89="","-Invalid Invoice No",""),
@@ -2580,7 +2322,7 @@
       </c>
     </row>
     <row r="90" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" t="str" s="0">
+      <c r="A90" t="str">
         <f>IF(COUNTBLANK(B90:H90)&gt;0,IF(COUNTBLANK(B90:H90)=7,"","Inprogress"),
 CONCATENATE(
 IF(B90="","-Invalid Invoice No",""),
@@ -2591,7 +2333,7 @@
       </c>
     </row>
     <row r="91" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" t="str" s="0">
+      <c r="A91" t="str">
         <f>IF(COUNTBLANK(B91:H91)&gt;0,IF(COUNTBLANK(B91:H91)=7,"","Inprogress"),
 CONCATENATE(
 IF(B91="","-Invalid Invoice No",""),
@@ -2602,7 +2344,7 @@
       </c>
     </row>
     <row r="92" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" t="str" s="0">
+      <c r="A92" t="str">
         <f>IF(COUNTBLANK(B92:H92)&gt;0,IF(COUNTBLANK(B92:H92)=7,"","Inprogress"),
 CONCATENATE(
 IF(B92="","-Invalid Invoice No",""),
@@ -2613,7 +2355,7 @@
       </c>
     </row>
     <row r="93" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" t="str" s="0">
+      <c r="A93" t="str">
         <f>IF(COUNTBLANK(B93:H93)&gt;0,IF(COUNTBLANK(B93:H93)=7,"","Inprogress"),
 CONCATENATE(
 IF(B93="","-Invalid Invoice No",""),
@@ -2624,7 +2366,7 @@
       </c>
     </row>
     <row r="94" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" t="str" s="0">
+      <c r="A94" t="str">
         <f>IF(COUNTBLANK(B94:H94)&gt;0,IF(COUNTBLANK(B94:H94)=7,"","Inprogress"),
 CONCATENATE(
 IF(B94="","-Invalid Invoice No",""),
@@ -2635,7 +2377,7 @@
       </c>
     </row>
     <row r="95" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" t="str" s="0">
+      <c r="A95" t="str">
         <f>IF(COUNTBLANK(B95:H95)&gt;0,IF(COUNTBLANK(B95:H95)=7,"","Inprogress"),
 CONCATENATE(
 IF(B95="","-Invalid Invoice No",""),
@@ -2646,7 +2388,7 @@
       </c>
     </row>
     <row r="96" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" t="str" s="0">
+      <c r="A96" t="str">
         <f>IF(COUNTBLANK(B96:H96)&gt;0,IF(COUNTBLANK(B96:H96)=7,"","Inprogress"),
 CONCATENATE(
 IF(B96="","-Invalid Invoice No",""),
@@ -2657,7 +2399,7 @@
       </c>
     </row>
     <row r="97" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" t="str" s="0">
+      <c r="A97" t="str">
         <f>IF(COUNTBLANK(B97:H97)&gt;0,IF(COUNTBLANK(B97:H97)=7,"","Inprogress"),
 CONCATENATE(
 IF(B97="","-Invalid Invoice No",""),
@@ -2668,7 +2410,7 @@
       </c>
     </row>
     <row r="98" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" t="str" s="0">
+      <c r="A98" t="str">
         <f>IF(COUNTBLANK(B98:H98)&gt;0,IF(COUNTBLANK(B98:H98)=7,"","Inprogress"),
 CONCATENATE(
 IF(B98="","-Invalid Invoice No",""),
@@ -2679,7 +2421,7 @@
       </c>
     </row>
     <row r="99" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" t="str" s="0">
+      <c r="A99" t="str">
         <f>IF(COUNTBLANK(B99:H99)&gt;0,IF(COUNTBLANK(B99:H99)=7,"","Inprogress"),
 CONCATENATE(
 IF(B99="","-Invalid Invoice No",""),
@@ -2690,7 +2432,7 @@
       </c>
     </row>
     <row r="100" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" t="str" s="0">
+      <c r="A100" t="str">
         <f>IF(COUNTBLANK(B100:H100)&gt;0,IF(COUNTBLANK(B100:H100)=7,"","Inprogress"),
 CONCATENATE(
 IF(B100="","-Invalid Invoice No",""),
@@ -2701,7 +2443,7 @@
       </c>
     </row>
     <row r="101" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" t="str" s="0">
+      <c r="A101" t="str">
         <f>IF(COUNTBLANK(B101:H101)&gt;0,IF(COUNTBLANK(B101:H101)=7,"","Inprogress"),
 CONCATENATE(
 IF(B101="","-Invalid Invoice No",""),
@@ -2712,7 +2454,7 @@
       </c>
     </row>
     <row r="102" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" t="str" s="0">
+      <c r="A102" t="str">
         <f>IF(COUNTBLANK(B102:H102)&gt;0,IF(COUNTBLANK(B102:H102)=7,"","Inprogress"),
 CONCATENATE(
 IF(B102="","-Invalid Invoice No",""),
@@ -2723,7 +2465,7 @@
       </c>
     </row>
     <row r="103" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" t="str" s="0">
+      <c r="A103" t="str">
         <f>IF(COUNTBLANK(B103:H103)&gt;0,IF(COUNTBLANK(B103:H103)=7,"","Inprogress"),
 CONCATENATE(
 IF(B103="","-Invalid Invoice No",""),
@@ -2734,7 +2476,7 @@
       </c>
     </row>
     <row r="104" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" t="str" s="0">
+      <c r="A104" t="str">
         <f>IF(COUNTBLANK(B104:H104)&gt;0,IF(COUNTBLANK(B104:H104)=7,"","Inprogress"),
 CONCATENATE(
 IF(B104="","-Invalid Invoice No",""),
@@ -2745,7 +2487,7 @@
       </c>
     </row>
     <row r="105" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" t="str" s="0">
+      <c r="A105" t="str">
         <f>IF(COUNTBLANK(B105:H105)&gt;0,IF(COUNTBLANK(B105:H105)=7,"","Inprogress"),
 CONCATENATE(
 IF(B105="","-Invalid Invoice No",""),
@@ -2756,7 +2498,7 @@
       </c>
     </row>
     <row r="106" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" t="str" s="0">
+      <c r="A106" t="str">
         <f>IF(COUNTBLANK(B106:H106)&gt;0,IF(COUNTBLANK(B106:H106)=7,"","Inprogress"),
 CONCATENATE(
 IF(B106="","-Invalid Invoice No",""),
@@ -2767,7 +2509,7 @@
       </c>
     </row>
     <row r="107" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" t="str" s="0">
+      <c r="A107" t="str">
         <f>IF(COUNTBLANK(B107:H107)&gt;0,IF(COUNTBLANK(B107:H107)=7,"","Inprogress"),
 CONCATENATE(
 IF(B107="","-Invalid Invoice No",""),
@@ -2778,7 +2520,7 @@
       </c>
     </row>
     <row r="108" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" t="str" s="0">
+      <c r="A108" t="str">
         <f>IF(COUNTBLANK(B108:H108)&gt;0,IF(COUNTBLANK(B108:H108)=7,"","Inprogress"),
 CONCATENATE(
 IF(B108="","-Invalid Invoice No",""),
@@ -2789,7 +2531,7 @@
       </c>
     </row>
     <row r="109" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" t="str" s="0">
+      <c r="A109" t="str">
         <f>IF(COUNTBLANK(B109:H109)&gt;0,IF(COUNTBLANK(B109:H109)=7,"","Inprogress"),
 CONCATENATE(
 IF(B109="","-Invalid Invoice No",""),
@@ -2800,7 +2542,7 @@
       </c>
     </row>
     <row r="110" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" t="str" s="0">
+      <c r="A110" t="str">
         <f>IF(COUNTBLANK(B110:H110)&gt;0,IF(COUNTBLANK(B110:H110)=7,"","Inprogress"),
 CONCATENATE(
 IF(B110="","-Invalid Invoice No",""),
@@ -2811,7 +2553,7 @@
       </c>
     </row>
     <row r="111" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" t="str" s="0">
+      <c r="A111" t="str">
         <f>IF(COUNTBLANK(B111:H111)&gt;0,IF(COUNTBLANK(B111:H111)=7,"","Inprogress"),
 CONCATENATE(
 IF(B111="","-Invalid Invoice No",""),
@@ -2822,7 +2564,7 @@
       </c>
     </row>
     <row r="112" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" t="str" s="0">
+      <c r="A112" t="str">
         <f>IF(COUNTBLANK(B112:H112)&gt;0,IF(COUNTBLANK(B112:H112)=7,"","Inprogress"),
 CONCATENATE(
 IF(B112="","-Invalid Invoice No",""),
@@ -2833,7 +2575,7 @@
       </c>
     </row>
     <row r="113" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" t="str" s="0">
+      <c r="A113" t="str">
         <f>IF(COUNTBLANK(B113:H113)&gt;0,IF(COUNTBLANK(B113:H113)=7,"","Inprogress"),
 CONCATENATE(
 IF(B113="","-Invalid Invoice No",""),
@@ -2844,7 +2586,7 @@
       </c>
     </row>
     <row r="114" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" t="str" s="0">
+      <c r="A114" t="str">
         <f>IF(COUNTBLANK(B114:H114)&gt;0,IF(COUNTBLANK(B114:H114)=7,"","Inprogress"),
 CONCATENATE(
 IF(B114="","-Invalid Invoice No",""),
@@ -2855,7 +2597,7 @@
       </c>
     </row>
     <row r="115" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" t="str" s="0">
+      <c r="A115" t="str">
         <f>IF(COUNTBLANK(B115:H115)&gt;0,IF(COUNTBLANK(B115:H115)=7,"","Inprogress"),
 CONCATENATE(
 IF(B115="","-Invalid Invoice No",""),
@@ -2866,7 +2608,7 @@
       </c>
     </row>
     <row r="116" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" t="str" s="0">
+      <c r="A116" t="str">
         <f>IF(COUNTBLANK(B116:H116)&gt;0,IF(COUNTBLANK(B116:H116)=7,"","Inprogress"),
 CONCATENATE(
 IF(B116="","-Invalid Invoice No",""),
@@ -2877,7 +2619,7 @@
       </c>
     </row>
     <row r="117" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" t="str" s="0">
+      <c r="A117" t="str">
         <f>IF(COUNTBLANK(B117:H117)&gt;0,IF(COUNTBLANK(B117:H117)=7,"","Inprogress"),
 CONCATENATE(
 IF(B117="","-Invalid Invoice No",""),
@@ -2888,7 +2630,7 @@
       </c>
     </row>
     <row r="118" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" t="str" s="0">
+      <c r="A118" t="str">
         <f>IF(COUNTBLANK(B118:H118)&gt;0,IF(COUNTBLANK(B118:H118)=7,"","Inprogress"),
 CONCATENATE(
 IF(B118="","-Invalid Invoice No",""),
@@ -2899,7 +2641,7 @@
       </c>
     </row>
     <row r="119" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" t="str" s="0">
+      <c r="A119" t="str">
         <f>IF(COUNTBLANK(B119:H119)&gt;0,IF(COUNTBLANK(B119:H119)=7,"","Inprogress"),
 CONCATENATE(
 IF(B119="","-Invalid Invoice No",""),
@@ -2910,7 +2652,7 @@
       </c>
     </row>
     <row r="120" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" t="str" s="0">
+      <c r="A120" t="str">
         <f>IF(COUNTBLANK(B120:H120)&gt;0,IF(COUNTBLANK(B120:H120)=7,"","Inprogress"),
 CONCATENATE(
 IF(B120="","-Invalid Invoice No",""),
@@ -2921,7 +2663,7 @@
       </c>
     </row>
     <row r="121" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" t="str" s="0">
+      <c r="A121" t="str">
         <f>IF(COUNTBLANK(B121:H121)&gt;0,IF(COUNTBLANK(B121:H121)=7,"","Inprogress"),
 CONCATENATE(
 IF(B121="","-Invalid Invoice No",""),
@@ -2932,7 +2674,7 @@
       </c>
     </row>
     <row r="122" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" t="str" s="0">
+      <c r="A122" t="str">
         <f>IF(COUNTBLANK(B122:H122)&gt;0,IF(COUNTBLANK(B122:H122)=7,"","Inprogress"),
 CONCATENATE(
 IF(B122="","-Invalid Invoice No",""),
@@ -2943,7 +2685,7 @@
       </c>
     </row>
     <row r="123" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" t="str" s="0">
+      <c r="A123" t="str">
         <f>IF(COUNTBLANK(B123:H123)&gt;0,IF(COUNTBLANK(B123:H123)=7,"","Inprogress"),
 CONCATENATE(
 IF(B123="","-Invalid Invoice No",""),
@@ -2954,7 +2696,7 @@
       </c>
     </row>
     <row r="124" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" t="str" s="0">
+      <c r="A124" t="str">
         <f>IF(COUNTBLANK(B124:H124)&gt;0,IF(COUNTBLANK(B124:H124)=7,"","Inprogress"),
 CONCATENATE(
 IF(B124="","-Invalid Invoice No",""),
@@ -2965,7 +2707,7 @@
       </c>
     </row>
     <row r="125" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" t="str" s="0">
+      <c r="A125" t="str">
         <f>IF(COUNTBLANK(B125:H125)&gt;0,IF(COUNTBLANK(B125:H125)=7,"","Inprogress"),
 CONCATENATE(
 IF(B125="","-Invalid Invoice No",""),
@@ -2976,7 +2718,7 @@
       </c>
     </row>
     <row r="126" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" t="str" s="0">
+      <c r="A126" t="str">
         <f>IF(COUNTBLANK(B126:H126)&gt;0,IF(COUNTBLANK(B126:H126)=7,"","Inprogress"),
 CONCATENATE(
 IF(B126="","-Invalid Invoice No",""),
@@ -2987,7 +2729,7 @@
       </c>
     </row>
     <row r="127" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" t="str" s="0">
+      <c r="A127" t="str">
         <f>IF(COUNTBLANK(B127:H127)&gt;0,IF(COUNTBLANK(B127:H127)=7,"","Inprogress"),
 CONCATENATE(
 IF(B127="","-Invalid Invoice No",""),
@@ -2998,7 +2740,7 @@
       </c>
     </row>
     <row r="128" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" t="str" s="0">
+      <c r="A128" t="str">
         <f>IF(COUNTBLANK(B128:H128)&gt;0,IF(COUNTBLANK(B128:H128)=7,"","Inprogress"),
 CONCATENATE(
 IF(B128="","-Invalid Invoice No",""),
@@ -3009,7 +2751,7 @@
       </c>
     </row>
     <row r="129" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" t="str" s="0">
+      <c r="A129" t="str">
         <f>IF(COUNTBLANK(B129:H129)&gt;0,IF(COUNTBLANK(B129:H129)=7,"","Inprogress"),
 CONCATENATE(
 IF(B129="","-Invalid Invoice No",""),
@@ -3020,7 +2762,7 @@
       </c>
     </row>
     <row r="130" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" t="str" s="0">
+      <c r="A130" t="str">
         <f>IF(COUNTBLANK(B130:H130)&gt;0,IF(COUNTBLANK(B130:H130)=7,"","Inprogress"),
 CONCATENATE(
 IF(B130="","-Invalid Invoice No",""),
@@ -3031,7 +2773,7 @@
       </c>
     </row>
     <row r="131" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" t="str" s="0">
+      <c r="A131" t="str">
         <f>IF(COUNTBLANK(B131:H131)&gt;0,IF(COUNTBLANK(B131:H131)=7,"","Inprogress"),
 CONCATENATE(
 IF(B131="","-Invalid Invoice No",""),
@@ -3042,7 +2784,7 @@
       </c>
     </row>
     <row r="132" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" t="str" s="0">
+      <c r="A132" t="str">
         <f>IF(COUNTBLANK(B132:H132)&gt;0,IF(COUNTBLANK(B132:H132)=7,"","Inprogress"),
 CONCATENATE(
 IF(B132="","-Invalid Invoice No",""),
@@ -3053,7 +2795,7 @@
       </c>
     </row>
     <row r="133" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" t="str" s="0">
+      <c r="A133" t="str">
         <f>IF(COUNTBLANK(B133:H133)&gt;0,IF(COUNTBLANK(B133:H133)=7,"","Inprogress"),
 CONCATENATE(
 IF(B133="","-Invalid Invoice No",""),
@@ -3064,7 +2806,7 @@
       </c>
     </row>
     <row r="134" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" t="str" s="0">
+      <c r="A134" t="str">
         <f>IF(COUNTBLANK(B134:H134)&gt;0,IF(COUNTBLANK(B134:H134)=7,"","Inprogress"),
 CONCATENATE(
 IF(B134="","-Invalid Invoice No",""),
@@ -3075,7 +2817,7 @@
       </c>
     </row>
     <row r="135" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" t="str" s="0">
+      <c r="A135" t="str">
         <f>IF(COUNTBLANK(B135:H135)&gt;0,IF(COUNTBLANK(B135:H135)=7,"","Inprogress"),
 CONCATENATE(
 IF(B135="","-Invalid Invoice No",""),
@@ -3086,7 +2828,7 @@
       </c>
     </row>
     <row r="136" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" t="str" s="0">
+      <c r="A136" t="str">
         <f>IF(COUNTBLANK(B136:H136)&gt;0,IF(COUNTBLANK(B136:H136)=7,"","Inprogress"),
 CONCATENATE(
 IF(B136="","-Invalid Invoice No",""),
@@ -3097,7 +2839,7 @@
       </c>
     </row>
     <row r="137" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" t="str" s="0">
+      <c r="A137" t="str">
         <f>IF(COUNTBLANK(B137:H137)&gt;0,IF(COUNTBLANK(B137:H137)=7,"","Inprogress"),
 CONCATENATE(
 IF(B137="","-Invalid Invoice No",""),
@@ -3108,7 +2850,7 @@
       </c>
     </row>
     <row r="138" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" t="str" s="0">
+      <c r="A138" t="str">
         <f>IF(COUNTBLANK(B138:H138)&gt;0,IF(COUNTBLANK(B138:H138)=7,"","Inprogress"),
 CONCATENATE(
 IF(B138="","-Invalid Invoice No",""),
@@ -3119,7 +2861,7 @@
       </c>
     </row>
     <row r="139" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" t="str" s="0">
+      <c r="A139" t="str">
         <f>IF(COUNTBLANK(B139:H139)&gt;0,IF(COUNTBLANK(B139:H139)=7,"","Inprogress"),
 CONCATENATE(
 IF(B139="","-Invalid Invoice No",""),
@@ -3130,7 +2872,7 @@
       </c>
     </row>
     <row r="140" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" t="str" s="0">
+      <c r="A140" t="str">
         <f>IF(COUNTBLANK(B140:H140)&gt;0,IF(COUNTBLANK(B140:H140)=7,"","Inprogress"),
 CONCATENATE(
 IF(B140="","-Invalid Invoice No",""),
@@ -3141,7 +2883,7 @@
       </c>
     </row>
     <row r="141" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" t="str" s="0">
+      <c r="A141" t="str">
         <f>IF(COUNTBLANK(B141:H141)&gt;0,IF(COUNTBLANK(B141:H141)=7,"","Inprogress"),
 CONCATENATE(
 IF(B141="","-Invalid Invoice No",""),
@@ -3152,7 +2894,7 @@
       </c>
     </row>
     <row r="142" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A142" t="str" s="0">
+      <c r="A142" t="str">
         <f>IF(COUNTBLANK(B142:H142)&gt;0,IF(COUNTBLANK(B142:H142)=7,"","Inprogress"),
 CONCATENATE(
 IF(B142="","-Invalid Invoice No",""),
@@ -3163,7 +2905,7 @@
       </c>
     </row>
     <row r="143" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A143" t="str" s="0">
+      <c r="A143" t="str">
         <f>IF(COUNTBLANK(B143:H143)&gt;0,IF(COUNTBLANK(B143:H143)=7,"","Inprogress"),
 CONCATENATE(
 IF(B143="","-Invalid Invoice No",""),
@@ -3174,7 +2916,7 @@
       </c>
     </row>
     <row r="144" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A144" t="str" s="0">
+      <c r="A144" t="str">
         <f>IF(COUNTBLANK(B144:H144)&gt;0,IF(COUNTBLANK(B144:H144)=7,"","Inprogress"),
 CONCATENATE(
 IF(B144="","-Invalid Invoice No",""),
@@ -3185,7 +2927,7 @@
       </c>
     </row>
     <row r="145" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A145" t="str" s="0">
+      <c r="A145" t="str">
         <f>IF(COUNTBLANK(B145:H145)&gt;0,IF(COUNTBLANK(B145:H145)=7,"","Inprogress"),
 CONCATENATE(
 IF(B145="","-Invalid Invoice No",""),
@@ -3196,7 +2938,7 @@
       </c>
     </row>
     <row r="146" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A146" t="str" s="0">
+      <c r="A146" t="str">
         <f>IF(COUNTBLANK(B146:H146)&gt;0,IF(COUNTBLANK(B146:H146)=7,"","Inprogress"),
 CONCATENATE(
 IF(B146="","-Invalid Invoice No",""),
@@ -3207,7 +2949,7 @@
       </c>
     </row>
     <row r="147" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A147" t="str" s="0">
+      <c r="A147" t="str">
         <f>IF(COUNTBLANK(B147:H147)&gt;0,IF(COUNTBLANK(B147:H147)=7,"","Inprogress"),
 CONCATENATE(
 IF(B147="","-Invalid Invoice No",""),
@@ -3218,7 +2960,7 @@
       </c>
     </row>
     <row r="148" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" t="str" s="0">
+      <c r="A148" t="str">
         <f>IF(COUNTBLANK(B148:H148)&gt;0,IF(COUNTBLANK(B148:H148)=7,"","Inprogress"),
 CONCATENATE(
 IF(B148="","-Invalid Invoice No",""),
@@ -3229,7 +2971,7 @@
       </c>
     </row>
     <row r="149" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" t="str" s="0">
+      <c r="A149" t="str">
         <f>IF(COUNTBLANK(B149:H149)&gt;0,IF(COUNTBLANK(B149:H149)=7,"","Inprogress"),
 CONCATENATE(
 IF(B149="","-Invalid Invoice No",""),
@@ -3240,7 +2982,7 @@
       </c>
     </row>
     <row r="150" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" t="str" s="0">
+      <c r="A150" t="str">
         <f>IF(COUNTBLANK(B150:H150)&gt;0,IF(COUNTBLANK(B150:H150)=7,"","Inprogress"),
 CONCATENATE(
 IF(B150="","-Invalid Invoice No",""),
@@ -3251,7 +2993,7 @@
       </c>
     </row>
     <row r="151" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" t="str" s="0">
+      <c r="A151" t="str">
         <f>IF(COUNTBLANK(B151:H151)&gt;0,IF(COUNTBLANK(B151:H151)=7,"","Inprogress"),
 CONCATENATE(
 IF(B151="","-Invalid Invoice No",""),
@@ -3262,7 +3004,7 @@
       </c>
     </row>
     <row r="152" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" t="str" s="0">
+      <c r="A152" t="str">
         <f>IF(COUNTBLANK(B152:H152)&gt;0,IF(COUNTBLANK(B152:H152)=7,"","Inprogress"),
 CONCATENATE(
 IF(B152="","-Invalid Invoice No",""),
@@ -3273,7 +3015,7 @@
       </c>
     </row>
     <row r="153" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A153" t="str" s="0">
+      <c r="A153" t="str">
         <f>IF(COUNTBLANK(B153:H153)&gt;0,IF(COUNTBLANK(B153:H153)=7,"","Inprogress"),
 CONCATENATE(
 IF(B153="","-Invalid Invoice No",""),
@@ -3284,7 +3026,7 @@
       </c>
     </row>
     <row r="154" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" t="str" s="0">
+      <c r="A154" t="str">
         <f>IF(COUNTBLANK(B154:H154)&gt;0,IF(COUNTBLANK(B154:H154)=7,"","Inprogress"),
 CONCATENATE(
 IF(B154="","-Invalid Invoice No",""),
@@ -3295,7 +3037,7 @@
       </c>
     </row>
     <row r="155" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" t="str" s="0">
+      <c r="A155" t="str">
         <f>IF(COUNTBLANK(B155:H155)&gt;0,IF(COUNTBLANK(B155:H155)=7,"","Inprogress"),
 CONCATENATE(
 IF(B155="","-Invalid Invoice No",""),
@@ -3306,7 +3048,7 @@
       </c>
     </row>
     <row r="156" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" t="str" s="0">
+      <c r="A156" t="str">
         <f>IF(COUNTBLANK(B156:H156)&gt;0,IF(COUNTBLANK(B156:H156)=7,"","Inprogress"),
 CONCATENATE(
 IF(B156="","-Invalid Invoice No",""),
@@ -3317,7 +3059,7 @@
       </c>
     </row>
     <row r="157" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" t="str" s="0">
+      <c r="A157" t="str">
         <f>IF(COUNTBLANK(B157:H157)&gt;0,IF(COUNTBLANK(B157:H157)=7,"","Inprogress"),
 CONCATENATE(
 IF(B157="","-Invalid Invoice No",""),
@@ -3328,7 +3070,7 @@
       </c>
     </row>
     <row r="158" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" t="str" s="0">
+      <c r="A158" t="str">
         <f>IF(COUNTBLANK(B158:H158)&gt;0,IF(COUNTBLANK(B158:H158)=7,"","Inprogress"),
 CONCATENATE(
 IF(B158="","-Invalid Invoice No",""),
@@ -3339,7 +3081,7 @@
       </c>
     </row>
     <row r="159" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A159" t="str" s="0">
+      <c r="A159" t="str">
         <f>IF(COUNTBLANK(B159:H159)&gt;0,IF(COUNTBLANK(B159:H159)=7,"","Inprogress"),
 CONCATENATE(
 IF(B159="","-Invalid Invoice No",""),
@@ -3350,7 +3092,7 @@
       </c>
     </row>
     <row r="160" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A160" t="str" s="0">
+      <c r="A160" t="str">
         <f>IF(COUNTBLANK(B160:H160)&gt;0,IF(COUNTBLANK(B160:H160)=7,"","Inprogress"),
 CONCATENATE(
 IF(B160="","-Invalid Invoice No",""),
@@ -3361,7 +3103,7 @@
       </c>
     </row>
     <row r="161" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A161" t="str" s="0">
+      <c r="A161" t="str">
         <f>IF(COUNTBLANK(B161:H161)&gt;0,IF(COUNTBLANK(B161:H161)=7,"","Inprogress"),
 CONCATENATE(
 IF(B161="","-Invalid Invoice No",""),
@@ -3372,7 +3114,7 @@
       </c>
     </row>
     <row r="162" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A162" t="str" s="0">
+      <c r="A162" t="str">
         <f>IF(COUNTBLANK(B162:H162)&gt;0,IF(COUNTBLANK(B162:H162)=7,"","Inprogress"),
 CONCATENATE(
 IF(B162="","-Invalid Invoice No",""),
@@ -3383,7 +3125,7 @@
       </c>
     </row>
     <row r="163" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A163" t="str" s="0">
+      <c r="A163" t="str">
         <f>IF(COUNTBLANK(B163:H163)&gt;0,IF(COUNTBLANK(B163:H163)=7,"","Inprogress"),
 CONCATENATE(
 IF(B163="","-Invalid Invoice No",""),
@@ -3394,7 +3136,7 @@
       </c>
     </row>
     <row r="164" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A164" t="str" s="0">
+      <c r="A164" t="str">
         <f>IF(COUNTBLANK(B164:H164)&gt;0,IF(COUNTBLANK(B164:H164)=7,"","Inprogress"),
 CONCATENATE(
 IF(B164="","-Invalid Invoice No",""),
@@ -3405,7 +3147,7 @@
       </c>
     </row>
     <row r="165" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A165" t="str" s="0">
+      <c r="A165" t="str">
         <f>IF(COUNTBLANK(B165:H165)&gt;0,IF(COUNTBLANK(B165:H165)=7,"","Inprogress"),
 CONCATENATE(
 IF(B165="","-Invalid Invoice No",""),
@@ -3416,7 +3158,7 @@
       </c>
     </row>
     <row r="166" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A166" t="str" s="0">
+      <c r="A166" t="str">
         <f>IF(COUNTBLANK(B166:H166)&gt;0,IF(COUNTBLANK(B166:H166)=7,"","Inprogress"),
 CONCATENATE(
 IF(B166="","-Invalid Invoice No",""),
@@ -3427,7 +3169,7 @@
       </c>
     </row>
     <row r="167" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A167" t="str" s="0">
+      <c r="A167" t="str">
         <f>IF(COUNTBLANK(B167:H167)&gt;0,IF(COUNTBLANK(B167:H167)=7,"","Inprogress"),
 CONCATENATE(
 IF(B167="","-Invalid Invoice No",""),
@@ -3438,7 +3180,7 @@
       </c>
     </row>
     <row r="168" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A168" t="str" s="0">
+      <c r="A168" t="str">
         <f>IF(COUNTBLANK(B168:H168)&gt;0,IF(COUNTBLANK(B168:H168)=7,"","Inprogress"),
 CONCATENATE(
 IF(B168="","-Invalid Invoice No",""),
@@ -3449,7 +3191,7 @@
       </c>
     </row>
     <row r="169" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A169" t="str" s="0">
+      <c r="A169" t="str">
         <f>IF(COUNTBLANK(B169:H169)&gt;0,IF(COUNTBLANK(B169:H169)=7,"","Inprogress"),
 CONCATENATE(
 IF(B169="","-Invalid Invoice No",""),
@@ -3460,7 +3202,7 @@
       </c>
     </row>
     <row r="170" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A170" t="str" s="0">
+      <c r="A170" t="str">
         <f>IF(COUNTBLANK(B170:H170)&gt;0,IF(COUNTBLANK(B170:H170)=7,"","Inprogress"),
 CONCATENATE(
 IF(B170="","-Invalid Invoice No",""),
@@ -3471,7 +3213,7 @@
       </c>
     </row>
     <row r="171" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A171" t="str" s="0">
+      <c r="A171" t="str">
         <f>IF(COUNTBLANK(B171:H171)&gt;0,IF(COUNTBLANK(B171:H171)=7,"","Inprogress"),
 CONCATENATE(
 IF(B171="","-Invalid Invoice No",""),
@@ -3482,7 +3224,7 @@
       </c>
     </row>
     <row r="172" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A172" t="str" s="0">
+      <c r="A172" t="str">
         <f>IF(COUNTBLANK(B172:H172)&gt;0,IF(COUNTBLANK(B172:H172)=7,"","Inprogress"),
 CONCATENATE(
 IF(B172="","-Invalid Invoice No",""),
@@ -3493,7 +3235,7 @@
       </c>
     </row>
     <row r="173" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A173" t="str" s="0">
+      <c r="A173" t="str">
         <f>IF(COUNTBLANK(B173:H173)&gt;0,IF(COUNTBLANK(B173:H173)=7,"","Inprogress"),
 CONCATENATE(
 IF(B173="","-Invalid Invoice No",""),
@@ -3504,7 +3246,7 @@
       </c>
     </row>
     <row r="174" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A174" t="str" s="0">
+      <c r="A174" t="str">
         <f>IF(COUNTBLANK(B174:H174)&gt;0,IF(COUNTBLANK(B174:H174)=7,"","Inprogress"),
 CONCATENATE(
 IF(B174="","-Invalid Invoice No",""),
@@ -3515,7 +3257,7 @@
       </c>
     </row>
     <row r="175" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A175" t="str" s="0">
+      <c r="A175" t="str">
         <f>IF(COUNTBLANK(B175:H175)&gt;0,IF(COUNTBLANK(B175:H175)=7,"","Inprogress"),
 CONCATENATE(
 IF(B175="","-Invalid Invoice No",""),
@@ -3526,7 +3268,7 @@
       </c>
     </row>
     <row r="176" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A176" t="str" s="0">
+      <c r="A176" t="str">
         <f>IF(COUNTBLANK(B176:H176)&gt;0,IF(COUNTBLANK(B176:H176)=7,"","Inprogress"),
 CONCATENATE(
 IF(B176="","-Invalid Invoice No",""),
@@ -3537,7 +3279,7 @@
       </c>
     </row>
     <row r="177" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A177" t="str" s="0">
+      <c r="A177" t="str">
         <f>IF(COUNTBLANK(B177:H177)&gt;0,IF(COUNTBLANK(B177:H177)=7,"","Inprogress"),
 CONCATENATE(
 IF(B177="","-Invalid Invoice No",""),
@@ -3548,7 +3290,7 @@
       </c>
     </row>
     <row r="178" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A178" t="str" s="0">
+      <c r="A178" t="str">
         <f>IF(COUNTBLANK(B178:H178)&gt;0,IF(COUNTBLANK(B178:H178)=7,"","Inprogress"),
 CONCATENATE(
 IF(B178="","-Invalid Invoice No",""),
@@ -3559,7 +3301,7 @@
       </c>
     </row>
     <row r="179" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A179" t="str" s="0">
+      <c r="A179" t="str">
         <f>IF(COUNTBLANK(B179:H179)&gt;0,IF(COUNTBLANK(B179:H179)=7,"","Inprogress"),
 CONCATENATE(
 IF(B179="","-Invalid Invoice No",""),
@@ -3570,7 +3312,7 @@
       </c>
     </row>
     <row r="180" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A180" t="str" s="0">
+      <c r="A180" t="str">
         <f>IF(COUNTBLANK(B180:H180)&gt;0,IF(COUNTBLANK(B180:H180)=7,"","Inprogress"),
 CONCATENATE(
 IF(B180="","-Invalid Invoice No",""),
@@ -3581,7 +3323,7 @@
       </c>
     </row>
     <row r="181" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A181" t="str" s="0">
+      <c r="A181" t="str">
         <f>IF(COUNTBLANK(B181:H181)&gt;0,IF(COUNTBLANK(B181:H181)=7,"","Inprogress"),
 CONCATENATE(
 IF(B181="","-Invalid Invoice No",""),
@@ -3592,7 +3334,7 @@
       </c>
     </row>
     <row r="182" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A182" t="str" s="0">
+      <c r="A182" t="str">
         <f>IF(COUNTBLANK(B182:H182)&gt;0,IF(COUNTBLANK(B182:H182)=7,"","Inprogress"),
 CONCATENATE(
 IF(B182="","-Invalid Invoice No",""),
@@ -3603,7 +3345,7 @@
       </c>
     </row>
     <row r="183" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A183" t="str" s="0">
+      <c r="A183" t="str">
         <f>IF(COUNTBLANK(B183:H183)&gt;0,IF(COUNTBLANK(B183:H183)=7,"","Inprogress"),
 CONCATENATE(
 IF(B183="","-Invalid Invoice No",""),
@@ -3614,7 +3356,7 @@
       </c>
     </row>
     <row r="184" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A184" t="str" s="0">
+      <c r="A184" t="str">
         <f>IF(COUNTBLANK(B184:H184)&gt;0,IF(COUNTBLANK(B184:H184)=7,"","Inprogress"),
 CONCATENATE(
 IF(B184="","-Invalid Invoice No",""),
@@ -3625,7 +3367,7 @@
       </c>
     </row>
     <row r="185" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A185" t="str" s="0">
+      <c r="A185" t="str">
         <f>IF(COUNTBLANK(B185:H185)&gt;0,IF(COUNTBLANK(B185:H185)=7,"","Inprogress"),
 CONCATENATE(
 IF(B185="","-Invalid Invoice No",""),
@@ -3636,7 +3378,7 @@
       </c>
     </row>
     <row r="186" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A186" t="str" s="0">
+      <c r="A186" t="str">
         <f>IF(COUNTBLANK(B186:H186)&gt;0,IF(COUNTBLANK(B186:H186)=7,"","Inprogress"),
 CONCATENATE(
 IF(B186="","-Invalid Invoice No",""),
@@ -3647,7 +3389,7 @@
       </c>
     </row>
     <row r="187" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A187" t="str" s="0">
+      <c r="A187" t="str">
         <f>IF(COUNTBLANK(B187:H187)&gt;0,IF(COUNTBLANK(B187:H187)=7,"","Inprogress"),
 CONCATENATE(
 IF(B187="","-Invalid Invoice No",""),
@@ -3658,7 +3400,7 @@
       </c>
     </row>
     <row r="188" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A188" t="str" s="0">
+      <c r="A188" t="str">
         <f>IF(COUNTBLANK(B188:H188)&gt;0,IF(COUNTBLANK(B188:H188)=7,"","Inprogress"),
 CONCATENATE(
 IF(B188="","-Invalid Invoice No",""),
@@ -3669,7 +3411,7 @@
       </c>
     </row>
     <row r="189" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A189" t="str" s="0">
+      <c r="A189" t="str">
         <f>IF(COUNTBLANK(B189:H189)&gt;0,IF(COUNTBLANK(B189:H189)=7,"","Inprogress"),
 CONCATENATE(
 IF(B189="","-Invalid Invoice No",""),
@@ -3680,7 +3422,7 @@
       </c>
     </row>
     <row r="190" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A190" t="str" s="0">
+      <c r="A190" t="str">
         <f>IF(COUNTBLANK(B190:H190)&gt;0,IF(COUNTBLANK(B190:H190)=7,"","Inprogress"),
 CONCATENATE(
 IF(B190="","-Invalid Invoice No",""),
@@ -3691,7 +3433,7 @@
       </c>
     </row>
     <row r="191" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A191" t="str" s="0">
+      <c r="A191" t="str">
         <f>IF(COUNTBLANK(B191:H191)&gt;0,IF(COUNTBLANK(B191:H191)=7,"","Inprogress"),
 CONCATENATE(
 IF(B191="","-Invalid Invoice No",""),
@@ -3702,7 +3444,7 @@
       </c>
     </row>
     <row r="192" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A192" t="str" s="0">
+      <c r="A192" t="str">
         <f>IF(COUNTBLANK(B192:H192)&gt;0,IF(COUNTBLANK(B192:H192)=7,"","Inprogress"),
 CONCATENATE(
 IF(B192="","-Invalid Invoice No",""),
@@ -3713,7 +3455,7 @@
       </c>
     </row>
     <row r="193" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A193" t="str" s="0">
+      <c r="A193" t="str">
         <f>IF(COUNTBLANK(B193:H193)&gt;0,IF(COUNTBLANK(B193:H193)=7,"","Inprogress"),
 CONCATENATE(
 IF(B193="","-Invalid Invoice No",""),
@@ -3724,7 +3466,7 @@
       </c>
     </row>
     <row r="194" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A194" t="str" s="0">
+      <c r="A194" t="str">
         <f>IF(COUNTBLANK(B194:H194)&gt;0,IF(COUNTBLANK(B194:H194)=7,"","Inprogress"),
 CONCATENATE(
 IF(B194="","-Invalid Invoice No",""),
@@ -3735,7 +3477,7 @@
       </c>
     </row>
     <row r="195" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A195" t="str" s="0">
+      <c r="A195" t="str">
         <f>IF(COUNTBLANK(B195:H195)&gt;0,IF(COUNTBLANK(B195:H195)=7,"","Inprogress"),
 CONCATENATE(
 IF(B195="","-Invalid Invoice No",""),
@@ -3746,7 +3488,7 @@
       </c>
     </row>
     <row r="196" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A196" t="str" s="0">
+      <c r="A196" t="str">
         <f>IF(COUNTBLANK(B196:H196)&gt;0,IF(COUNTBLANK(B196:H196)=7,"","Inprogress"),
 CONCATENATE(
 IF(B196="","-Invalid Invoice No",""),
@@ -3757,7 +3499,7 @@
       </c>
     </row>
     <row r="197" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A197" t="str" s="0">
+      <c r="A197" t="str">
         <f>IF(COUNTBLANK(B197:H197)&gt;0,IF(COUNTBLANK(B197:H197)=7,"","Inprogress"),
 CONCATENATE(
 IF(B197="","-Invalid Invoice No",""),
@@ -3768,7 +3510,7 @@
       </c>
     </row>
     <row r="198" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A198" t="str" s="0">
+      <c r="A198" t="str">
         <f>IF(COUNTBLANK(B198:H198)&gt;0,IF(COUNTBLANK(B198:H198)=7,"","Inprogress"),
 CONCATENATE(
 IF(B198="","-Invalid Invoice No",""),
@@ -3779,7 +3521,7 @@
       </c>
     </row>
     <row r="199" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A199" t="str" s="0">
+      <c r="A199" t="str">
         <f>IF(COUNTBLANK(B199:H199)&gt;0,IF(COUNTBLANK(B199:H199)=7,"","Inprogress"),
 CONCATENATE(
 IF(B199="","-Invalid Invoice No",""),
@@ -3790,7 +3532,7 @@
       </c>
     </row>
     <row r="200" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A200" t="str" s="0">
+      <c r="A200" t="str">
         <f>IF(COUNTBLANK(B200:H200)&gt;0,IF(COUNTBLANK(B200:H200)=7,"","Inprogress"),
 CONCATENATE(
 IF(B200="","-Invalid Invoice No",""),
@@ -3801,7 +3543,7 @@
       </c>
     </row>
     <row r="201" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A201" t="str" s="0">
+      <c r="A201" t="str">
         <f>IF(COUNTBLANK(B201:H201)&gt;0,IF(COUNTBLANK(B201:H201)=7,"","Inprogress"),
 CONCATENATE(
 IF(B201="","-Invalid Invoice No",""),
@@ -3812,7 +3554,7 @@
       </c>
     </row>
     <row r="202" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A202" t="str" s="0">
+      <c r="A202" t="str">
         <f>IF(COUNTBLANK(B202:H202)&gt;0,IF(COUNTBLANK(B202:H202)=7,"","Inprogress"),
 CONCATENATE(
 IF(B202="","-Invalid Invoice No",""),
@@ -3823,7 +3565,7 @@
       </c>
     </row>
     <row r="203" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A203" t="str" s="0">
+      <c r="A203" t="str">
         <f>IF(COUNTBLANK(B203:H203)&gt;0,IF(COUNTBLANK(B203:H203)=7,"","Inprogress"),
 CONCATENATE(
 IF(B203="","-Invalid Invoice No",""),
@@ -3834,7 +3576,7 @@
       </c>
     </row>
     <row r="204" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A204" t="str" s="0">
+      <c r="A204" t="str">
         <f>IF(COUNTBLANK(B204:H204)&gt;0,IF(COUNTBLANK(B204:H204)=7,"","Inprogress"),
 CONCATENATE(
 IF(B204="","-Invalid Invoice No",""),
@@ -3845,7 +3587,7 @@
       </c>
     </row>
     <row r="205" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A205" t="str" s="0">
+      <c r="A205" t="str">
         <f>IF(COUNTBLANK(B205:H205)&gt;0,IF(COUNTBLANK(B205:H205)=7,"","Inprogress"),
 CONCATENATE(
 IF(B205="","-Invalid Invoice No",""),
@@ -3856,7 +3598,7 @@
       </c>
     </row>
     <row r="206" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A206" t="str" s="0">
+      <c r="A206" t="str">
         <f>IF(COUNTBLANK(B206:H206)&gt;0,IF(COUNTBLANK(B206:H206)=7,"","Inprogress"),
 CONCATENATE(
 IF(B206="","-Invalid Invoice No",""),
@@ -3867,7 +3609,7 @@
       </c>
     </row>
     <row r="207" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A207" t="str" s="0">
+      <c r="A207" t="str">
         <f>IF(COUNTBLANK(B207:H207)&gt;0,IF(COUNTBLANK(B207:H207)=7,"","Inprogress"),
 CONCATENATE(
 IF(B207="","-Invalid Invoice No",""),
@@ -3878,7 +3620,7 @@
       </c>
     </row>
     <row r="208" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A208" t="str" s="0">
+      <c r="A208" t="str">
         <f>IF(COUNTBLANK(B208:H208)&gt;0,IF(COUNTBLANK(B208:H208)=7,"","Inprogress"),
 CONCATENATE(
 IF(B208="","-Invalid Invoice No",""),
@@ -3889,7 +3631,7 @@
       </c>
     </row>
     <row r="209" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A209" t="str" s="0">
+      <c r="A209" t="str">
         <f>IF(COUNTBLANK(B209:H209)&gt;0,IF(COUNTBLANK(B209:H209)=7,"","Inprogress"),
 CONCATENATE(
 IF(B209="","-Invalid Invoice No",""),
@@ -3900,7 +3642,7 @@
       </c>
     </row>
     <row r="210" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A210" t="str" s="0">
+      <c r="A210" t="str">
         <f>IF(COUNTBLANK(B210:H210)&gt;0,IF(COUNTBLANK(B210:H210)=7,"","Inprogress"),
 CONCATENATE(
 IF(B210="","-Invalid Invoice No",""),
@@ -3911,7 +3653,7 @@
       </c>
     </row>
     <row r="211" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A211" t="str" s="0">
+      <c r="A211" t="str">
         <f>IF(COUNTBLANK(B211:H211)&gt;0,IF(COUNTBLANK(B211:H211)=7,"","Inprogress"),
 CONCATENATE(
 IF(B211="","-Invalid Invoice No",""),
@@ -3922,7 +3664,7 @@
       </c>
     </row>
     <row r="212" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A212" t="str" s="0">
+      <c r="A212" t="str">
         <f>IF(COUNTBLANK(B212:H212)&gt;0,IF(COUNTBLANK(B212:H212)=7,"","Inprogress"),
 CONCATENATE(
 IF(B212="","-Invalid Invoice No",""),
@@ -3933,7 +3675,7 @@
       </c>
     </row>
     <row r="213" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A213" t="str" s="0">
+      <c r="A213" t="str">
         <f>IF(COUNTBLANK(B213:H213)&gt;0,IF(COUNTBLANK(B213:H213)=7,"","Inprogress"),
 CONCATENATE(
 IF(B213="","-Invalid Invoice No",""),
@@ -3944,7 +3686,7 @@
       </c>
     </row>
     <row r="214" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A214" t="str" s="0">
+      <c r="A214" t="str">
         <f>IF(COUNTBLANK(B214:H214)&gt;0,IF(COUNTBLANK(B214:H214)=7,"","Inprogress"),
 CONCATENATE(
 IF(B214="","-Invalid Invoice No",""),
@@ -3955,7 +3697,7 @@
       </c>
     </row>
     <row r="215" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A215" t="str" s="0">
+      <c r="A215" t="str">
         <f>IF(COUNTBLANK(B215:H215)&gt;0,IF(COUNTBLANK(B215:H215)=7,"","Inprogress"),
 CONCATENATE(
 IF(B215="","-Invalid Invoice No",""),
@@ -3966,7 +3708,7 @@
       </c>
     </row>
     <row r="216" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A216" t="str" s="0">
+      <c r="A216" t="str">
         <f>IF(COUNTBLANK(B216:H216)&gt;0,IF(COUNTBLANK(B216:H216)=7,"","Inprogress"),
 CONCATENATE(
 IF(B216="","-Invalid Invoice No",""),
@@ -3977,7 +3719,7 @@
       </c>
     </row>
     <row r="217" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A217" t="str" s="0">
+      <c r="A217" t="str">
         <f>IF(COUNTBLANK(B217:H217)&gt;0,IF(COUNTBLANK(B217:H217)=7,"","Inprogress"),
 CONCATENATE(
 IF(B217="","-Invalid Invoice No",""),
@@ -3988,7 +3730,7 @@
       </c>
     </row>
     <row r="218" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A218" t="str" s="0">
+      <c r="A218" t="str">
         <f>IF(COUNTBLANK(B218:H218)&gt;0,IF(COUNTBLANK(B218:H218)=7,"","Inprogress"),
 CONCATENATE(
 IF(B218="","-Invalid Invoice No",""),
@@ -3999,7 +3741,7 @@
       </c>
     </row>
     <row r="219" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A219" t="str" s="0">
+      <c r="A219" t="str">
         <f>IF(COUNTBLANK(B219:H219)&gt;0,IF(COUNTBLANK(B219:H219)=7,"","Inprogress"),
 CONCATENATE(
 IF(B219="","-Invalid Invoice No",""),
@@ -4010,7 +3752,7 @@
       </c>
     </row>
     <row r="220" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A220" t="str" s="0">
+      <c r="A220" t="str">
         <f>IF(COUNTBLANK(B220:H220)&gt;0,IF(COUNTBLANK(B220:H220)=7,"","Inprogress"),
 CONCATENATE(
 IF(B220="","-Invalid Invoice No",""),
@@ -4021,7 +3763,7 @@
       </c>
     </row>
     <row r="221" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A221" t="str" s="0">
+      <c r="A221" t="str">
         <f>IF(COUNTBLANK(B221:H221)&gt;0,IF(COUNTBLANK(B221:H221)=7,"","Inprogress"),
 CONCATENATE(
 IF(B221="","-Invalid Invoice No",""),
@@ -4032,7 +3774,7 @@
       </c>
     </row>
     <row r="222" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A222" t="str" s="0">
+      <c r="A222" t="str">
         <f>IF(COUNTBLANK(B222:H222)&gt;0,IF(COUNTBLANK(B222:H222)=7,"","Inprogress"),
 CONCATENATE(
 IF(B222="","-Invalid Invoice No",""),
@@ -4043,7 +3785,7 @@
       </c>
     </row>
     <row r="223" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A223" t="str" s="0">
+      <c r="A223" t="str">
         <f>IF(COUNTBLANK(B223:H223)&gt;0,IF(COUNTBLANK(B223:H223)=7,"","Inprogress"),
 CONCATENATE(
 IF(B223="","-Invalid Invoice No",""),
@@ -4054,7 +3796,7 @@
       </c>
     </row>
     <row r="224" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A224" t="str" s="0">
+      <c r="A224" t="str">
         <f>IF(COUNTBLANK(B224:H224)&gt;0,IF(COUNTBLANK(B224:H224)=7,"","Inprogress"),
 CONCATENATE(
 IF(B224="","-Invalid Invoice No",""),
@@ -4065,7 +3807,7 @@
       </c>
     </row>
     <row r="225" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A225" t="str" s="0">
+      <c r="A225" t="str">
         <f>IF(COUNTBLANK(B225:H225)&gt;0,IF(COUNTBLANK(B225:H225)=7,"","Inprogress"),
 CONCATENATE(
 IF(B225="","-Invalid Invoice No",""),
@@ -4076,7 +3818,7 @@
       </c>
     </row>
     <row r="226" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A226" t="str" s="0">
+      <c r="A226" t="str">
         <f>IF(COUNTBLANK(B226:H226)&gt;0,IF(COUNTBLANK(B226:H226)=7,"","Inprogress"),
 CONCATENATE(
 IF(B226="","-Invalid Invoice No",""),
@@ -4087,7 +3829,7 @@
       </c>
     </row>
     <row r="227" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A227" t="str" s="0">
+      <c r="A227" t="str">
         <f>IF(COUNTBLANK(B227:H227)&gt;0,IF(COUNTBLANK(B227:H227)=7,"","Inprogress"),
 CONCATENATE(
 IF(B227="","-Invalid Invoice No",""),
@@ -4098,7 +3840,7 @@
       </c>
     </row>
     <row r="228" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A228" t="str" s="0">
+      <c r="A228" t="str">
         <f>IF(COUNTBLANK(B228:H228)&gt;0,IF(COUNTBLANK(B228:H228)=7,"","Inprogress"),
 CONCATENATE(
 IF(B228="","-Invalid Invoice No",""),
@@ -4109,7 +3851,7 @@
       </c>
     </row>
     <row r="229" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A229" t="str" s="0">
+      <c r="A229" t="str">
         <f>IF(COUNTBLANK(B229:H229)&gt;0,IF(COUNTBLANK(B229:H229)=7,"","Inprogress"),
 CONCATENATE(
 IF(B229="","-Invalid Invoice No",""),
@@ -4120,7 +3862,7 @@
       </c>
     </row>
     <row r="230" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A230" t="str" s="0">
+      <c r="A230" t="str">
         <f>IF(COUNTBLANK(B230:H230)&gt;0,IF(COUNTBLANK(B230:H230)=7,"","Inprogress"),
 CONCATENATE(
 IF(B230="","-Invalid Invoice No",""),
@@ -4131,7 +3873,7 @@
       </c>
     </row>
     <row r="231" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A231" t="str" s="0">
+      <c r="A231" t="str">
         <f>IF(COUNTBLANK(B231:H231)&gt;0,IF(COUNTBLANK(B231:H231)=7,"","Inprogress"),
 CONCATENATE(
 IF(B231="","-Invalid Invoice No",""),
@@ -4142,7 +3884,7 @@
       </c>
     </row>
     <row r="232" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A232" t="str" s="0">
+      <c r="A232" t="str">
         <f>IF(COUNTBLANK(B232:H232)&gt;0,IF(COUNTBLANK(B232:H232)=7,"","Inprogress"),
 CONCATENATE(
 IF(B232="","-Invalid Invoice No",""),
@@ -4153,7 +3895,7 @@
       </c>
     </row>
     <row r="233" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A233" t="str" s="0">
+      <c r="A233" t="str">
         <f>IF(COUNTBLANK(B233:H233)&gt;0,IF(COUNTBLANK(B233:H233)=7,"","Inprogress"),
 CONCATENATE(
 IF(B233="","-Invalid Invoice No",""),
@@ -4164,7 +3906,7 @@
       </c>
     </row>
     <row r="234" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A234" t="str" s="0">
+      <c r="A234" t="str">
         <f>IF(COUNTBLANK(B234:H234)&gt;0,IF(COUNTBLANK(B234:H234)=7,"","Inprogress"),
 CONCATENATE(
 IF(B234="","-Invalid Invoice No",""),
@@ -4175,7 +3917,7 @@
       </c>
     </row>
     <row r="235" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A235" t="str" s="0">
+      <c r="A235" t="str">
         <f>IF(COUNTBLANK(B235:H235)&gt;0,IF(COUNTBLANK(B235:H235)=7,"","Inprogress"),
 CONCATENATE(
 IF(B235="","-Invalid Invoice No",""),
@@ -4186,7 +3928,7 @@
       </c>
     </row>
     <row r="236" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A236" t="str" s="0">
+      <c r="A236" t="str">
         <f>IF(COUNTBLANK(B236:H236)&gt;0,IF(COUNTBLANK(B236:H236)=7,"","Inprogress"),
 CONCATENATE(
 IF(B236="","-Invalid Invoice No",""),
@@ -4197,7 +3939,7 @@
       </c>
     </row>
     <row r="237" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A237" t="str" s="0">
+      <c r="A237" t="str">
         <f>IF(COUNTBLANK(B237:H237)&gt;0,IF(COUNTBLANK(B237:H237)=7,"","Inprogress"),
 CONCATENATE(
 IF(B237="","-Invalid Invoice No",""),
@@ -4208,7 +3950,7 @@
       </c>
     </row>
     <row r="238" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A238" t="str" s="0">
+      <c r="A238" t="str">
         <f>IF(COUNTBLANK(B238:H238)&gt;0,IF(COUNTBLANK(B238:H238)=7,"","Inprogress"),
 CONCATENATE(
 IF(B238="","-Invalid Invoice No",""),
@@ -4219,7 +3961,7 @@
       </c>
     </row>
     <row r="239" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A239" t="str" s="0">
+      <c r="A239" t="str">
         <f>IF(COUNTBLANK(B239:H239)&gt;0,IF(COUNTBLANK(B239:H239)=7,"","Inprogress"),
 CONCATENATE(
 IF(B239="","-Invalid Invoice No",""),
@@ -4230,7 +3972,7 @@
       </c>
     </row>
     <row r="240" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A240" t="str" s="0">
+      <c r="A240" t="str">
         <f>IF(COUNTBLANK(B240:H240)&gt;0,IF(COUNTBLANK(B240:H240)=7,"","Inprogress"),
 CONCATENATE(
 IF(B240="","-Invalid Invoice No",""),
@@ -4241,7 +3983,7 @@
       </c>
     </row>
     <row r="241" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A241" t="str" s="0">
+      <c r="A241" t="str">
         <f>IF(COUNTBLANK(B241:H241)&gt;0,IF(COUNTBLANK(B241:H241)=7,"","Inprogress"),
 CONCATENATE(
 IF(B241="","-Invalid Invoice No",""),
@@ -4252,7 +3994,7 @@
       </c>
     </row>
     <row r="242" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A242" t="str" s="0">
+      <c r="A242" t="str">
         <f>IF(COUNTBLANK(B242:H242)&gt;0,IF(COUNTBLANK(B242:H242)=7,"","Inprogress"),
 CONCATENATE(
 IF(B242="","-Invalid Invoice No",""),
@@ -4263,7 +4005,7 @@
       </c>
     </row>
     <row r="243" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A243" t="str" s="0">
+      <c r="A243" t="str">
         <f>IF(COUNTBLANK(B243:H243)&gt;0,IF(COUNTBLANK(B243:H243)=7,"","Inprogress"),
 CONCATENATE(
 IF(B243="","-Invalid Invoice No",""),
@@ -4274,7 +4016,7 @@
       </c>
     </row>
     <row r="244" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A244" t="str" s="0">
+      <c r="A244" t="str">
         <f>IF(COUNTBLANK(B244:H244)&gt;0,IF(COUNTBLANK(B244:H244)=7,"","Inprogress"),
 CONCATENATE(
 IF(B244="","-Invalid Invoice No",""),
@@ -4285,7 +4027,7 @@
       </c>
     </row>
     <row r="245" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A245" t="str" s="0">
+      <c r="A245" t="str">
         <f>IF(COUNTBLANK(B245:H245)&gt;0,IF(COUNTBLANK(B245:H245)=7,"","Inprogress"),
 CONCATENATE(
 IF(B245="","-Invalid Invoice No",""),
@@ -4296,7 +4038,7 @@
       </c>
     </row>
     <row r="246" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A246" t="str" s="0">
+      <c r="A246" t="str">
         <f>IF(COUNTBLANK(B246:H246)&gt;0,IF(COUNTBLANK(B246:H246)=7,"","Inprogress"),
 CONCATENATE(
 IF(B246="","-Invalid Invoice No",""),
@@ -4307,7 +4049,7 @@
       </c>
     </row>
     <row r="247" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A247" t="str" s="0">
+      <c r="A247" t="str">
         <f>IF(COUNTBLANK(B247:H247)&gt;0,IF(COUNTBLANK(B247:H247)=7,"","Inprogress"),
 CONCATENATE(
 IF(B247="","-Invalid Invoice No",""),
@@ -4318,7 +4060,7 @@
       </c>
     </row>
     <row r="248" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A248" t="str" s="0">
+      <c r="A248" t="str">
         <f>IF(COUNTBLANK(B248:H248)&gt;0,IF(COUNTBLANK(B248:H248)=7,"","Inprogress"),
 CONCATENATE(
 IF(B248="","-Invalid Invoice No",""),
@@ -4329,7 +4071,7 @@
       </c>
     </row>
     <row r="249" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A249" t="str" s="0">
+      <c r="A249" t="str">
         <f>IF(COUNTBLANK(B249:H249)&gt;0,IF(COUNTBLANK(B249:H249)=7,"","Inprogress"),
 CONCATENATE(
 IF(B249="","-Invalid Invoice No",""),
@@ -4340,7 +4082,7 @@
       </c>
     </row>
     <row r="250" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A250" t="str" s="0">
+      <c r="A250" t="str">
         <f>IF(COUNTBLANK(B250:H250)&gt;0,IF(COUNTBLANK(B250:H250)=7,"","Inprogress"),
 CONCATENATE(
 IF(B250="","-Invalid Invoice No",""),
@@ -4351,7 +4093,7 @@
       </c>
     </row>
     <row r="251" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A251" t="str" s="0">
+      <c r="A251" t="str">
         <f>IF(COUNTBLANK(B251:H251)&gt;0,IF(COUNTBLANK(B251:H251)=7,"","Inprogress"),
 CONCATENATE(
 IF(B251="","-Invalid Invoice No",""),
@@ -4362,7 +4104,7 @@
       </c>
     </row>
     <row r="252" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A252" t="str" s="0">
+      <c r="A252" t="str">
         <f>IF(COUNTBLANK(B252:H252)&gt;0,IF(COUNTBLANK(B252:H252)=7,"","Inprogress"),
 CONCATENATE(
 IF(B252="","-Invalid Invoice No",""),
@@ -4373,7 +4115,7 @@
       </c>
     </row>
     <row r="253" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A253" t="str" s="0">
+      <c r="A253" t="str">
         <f>IF(COUNTBLANK(B253:H253)&gt;0,IF(COUNTBLANK(B253:H253)=7,"","Inprogress"),
 CONCATENATE(
 IF(B253="","-Invalid Invoice No",""),
@@ -4384,7 +4126,7 @@
       </c>
     </row>
     <row r="254" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A254" t="str" s="0">
+      <c r="A254" t="str">
         <f>IF(COUNTBLANK(B254:H254)&gt;0,IF(COUNTBLANK(B254:H254)=7,"","Inprogress"),
 CONCATENATE(
 IF(B254="","-Invalid Invoice No",""),
@@ -4395,7 +4137,7 @@
       </c>
     </row>
     <row r="255" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A255" t="str" s="0">
+      <c r="A255" t="str">
         <f>IF(COUNTBLANK(B255:H255)&gt;0,IF(COUNTBLANK(B255:H255)=7,"","Inprogress"),
 CONCATENATE(
 IF(B255="","-Invalid Invoice No",""),
@@ -4406,7 +4148,7 @@
       </c>
     </row>
     <row r="256" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A256" t="str" s="0">
+      <c r="A256" t="str">
         <f>IF(COUNTBLANK(B256:H256)&gt;0,IF(COUNTBLANK(B256:H256)=7,"","Inprogress"),
 CONCATENATE(
 IF(B256="","-Invalid Invoice No",""),
@@ -4417,7 +4159,7 @@
       </c>
     </row>
     <row r="257" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A257" t="str" s="0">
+      <c r="A257" t="str">
         <f>IF(COUNTBLANK(B257:H257)&gt;0,IF(COUNTBLANK(B257:H257)=7,"","Inprogress"),
 CONCATENATE(
 IF(B257="","-Invalid Invoice No",""),
@@ -4428,7 +4170,7 @@
       </c>
     </row>
     <row r="258" spans="1:1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A258" t="str" s="0">
+      <c r="A258" t="str">
         <f>IF(COUNTBLANK(B258:H258)&gt;0,IF(COUNTBLANK(B258:H258)=7,"","Inprogress"),
 CONCATENATE(
 IF(B258="","-Invalid Invoice No",""),
@@ -4453,14 +4195,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="44.1796875"/>
+    <col min="1" max="1" width="44.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4652,19 +4394,19 @@
       </c>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
